--- a/Suivi.xlsx
+++ b/Suivi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camil\Documents\ENI\Modules\ProjetJEE\ProjetEncheres\ENI-Encheres\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA1926D-842D-4DAA-977D-ED3F2F46259F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E397CC8-C0F9-4B87-B972-D65501E25B1B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13148" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13148" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Paramètres" sheetId="1" r:id="rId1"/>
@@ -238,7 +238,7 @@
     <t>Total heures (heures travaillées par jour * homme(s))</t>
   </si>
   <si>
-    <t>TEST MODIFS*****</t>
+    <t>TEST</t>
   </si>
 </sst>
 </file>
@@ -449,21 +449,6 @@
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -497,6 +482,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1485,7 +1485,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1495,83 +1497,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
-      <c r="D3" s="8"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="7" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="6" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="11" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1594,8 +1598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="B22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -1606,1627 +1610,1625 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
     </row>
     <row r="3" spans="1:16" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
     </row>
     <row r="6" spans="1:16" ht="31.3" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="19" t="s">
+      <c r="N6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="O6" s="19" t="s">
+      <c r="O6" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="18.2" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22">
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17">
         <v>3</v>
       </c>
-      <c r="F7" s="22">
-        <v>0</v>
-      </c>
-      <c r="G7" s="22">
+      <c r="F7" s="17">
+        <v>0</v>
+      </c>
+      <c r="G7" s="17">
         <f t="shared" ref="G7:O7" si="0">F7</f>
         <v>0</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L7" s="22">
+      <c r="L7" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M7" s="22">
+      <c r="M7" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N7" s="22">
+      <c r="N7" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O7" s="22">
+      <c r="O7" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>0</v>
-      </c>
-      <c r="B8" s="23" t="s">
+      <c r="A8" s="25">
+        <v>0</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24">
-        <v>0</v>
-      </c>
-      <c r="F8" s="24">
-        <v>0</v>
-      </c>
-      <c r="G8" s="24">
-        <v>0</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19">
+        <v>0</v>
+      </c>
+      <c r="F8" s="19">
+        <v>0</v>
+      </c>
+      <c r="G8" s="19">
+        <v>0</v>
+      </c>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
     </row>
     <row r="9" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="23" t="s">
+      <c r="A9" s="25"/>
+      <c r="B9" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24">
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19">
         <v>3</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="19">
         <v>3</v>
       </c>
-      <c r="G9" s="24">
-        <v>0</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
+      <c r="G9" s="19">
+        <v>0</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
     </row>
     <row r="10" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="25" t="s">
+      <c r="A10" s="25"/>
+      <c r="B10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24">
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19">
         <v>5</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
     </row>
     <row r="11" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
     </row>
     <row r="13" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
     </row>
     <row r="14" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
     </row>
     <row r="15" spans="1:16" ht="18.2" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
+      <c r="A15" s="26">
         <v>1</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22">
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17">
         <v>18</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="17">
         <v>14</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="17">
         <v>12</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="17">
         <f>G15</f>
         <v>12</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="17">
         <f>H15</f>
         <v>12</v>
       </c>
-      <c r="J15" s="22">
-        <v>0</v>
-      </c>
-      <c r="K15" s="22">
+      <c r="J15" s="17">
+        <v>0</v>
+      </c>
+      <c r="K15" s="17">
         <f>J15</f>
         <v>0</v>
       </c>
-      <c r="L15" s="22">
+      <c r="L15" s="17">
         <f>K15</f>
         <v>0</v>
       </c>
-      <c r="M15" s="22">
+      <c r="M15" s="17">
         <f>L15</f>
         <v>0</v>
       </c>
-      <c r="N15" s="22">
+      <c r="N15" s="17">
         <f>M15</f>
         <v>0</v>
       </c>
-      <c r="O15" s="22">
+      <c r="O15" s="17">
         <f>N15</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="26" t="s">
+      <c r="A16" s="26"/>
+      <c r="B16" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="19">
         <v>2</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="19">
         <v>2</v>
       </c>
-      <c r="G16" s="24">
-        <v>0</v>
-      </c>
-      <c r="H16" s="24">
-        <v>0</v>
-      </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
+      <c r="G16" s="19">
+        <v>0</v>
+      </c>
+      <c r="H16" s="19">
+        <v>0</v>
+      </c>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="26" t="s">
+      <c r="A17" s="26"/>
+      <c r="B17" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="19">
         <v>3</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="19">
         <v>2</v>
       </c>
-      <c r="G17" s="24">
-        <v>0</v>
-      </c>
-      <c r="H17" s="24">
-        <v>0</v>
-      </c>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
+      <c r="G17" s="19">
+        <v>0</v>
+      </c>
+      <c r="H17" s="19">
+        <v>0</v>
+      </c>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="26" t="s">
+      <c r="A18" s="26"/>
+      <c r="B18" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="19">
         <v>3</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="19">
         <v>3</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="19">
         <v>3</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H18" s="19">
         <v>3</v>
       </c>
-      <c r="I18" s="24">
+      <c r="I18" s="19">
         <v>3</v>
       </c>
-      <c r="J18" s="24">
-        <v>0</v>
-      </c>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
+      <c r="J18" s="19">
+        <v>0</v>
+      </c>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
     </row>
     <row r="19" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="26" t="s">
+      <c r="A19" s="26"/>
+      <c r="B19" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="19">
         <v>3</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="19">
         <v>3</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="19">
         <v>2</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H19" s="19">
         <v>2</v>
       </c>
-      <c r="I19" s="24">
-        <v>0</v>
-      </c>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
+      <c r="I19" s="19">
+        <v>0</v>
+      </c>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
     </row>
     <row r="20" spans="1:15" ht="18.2" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
-      <c r="B20" s="20" t="s">
+      <c r="A20" s="26"/>
+      <c r="B20" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="22">
-        <v>0</v>
-      </c>
-      <c r="F20" s="22">
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17">
+        <v>0</v>
+      </c>
+      <c r="F20" s="17">
         <f t="shared" ref="F20:O20" si="1">E20</f>
         <v>0</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H20" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I20" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J20" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K20" s="22">
+      <c r="K20" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L20" s="22">
+      <c r="L20" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M20" s="22">
+      <c r="M20" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N20" s="22">
+      <c r="N20" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O20" s="22">
+      <c r="O20" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="26" t="s">
+      <c r="A21" s="26"/>
+      <c r="B21" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
     </row>
     <row r="22" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="26" t="s">
+      <c r="A22" s="26"/>
+      <c r="B22" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
     </row>
     <row r="23" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="26" t="s">
+      <c r="A23" s="26"/>
+      <c r="B23" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
     </row>
     <row r="24" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="26" t="s">
+      <c r="A24" s="26"/>
+      <c r="B24" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
     </row>
     <row r="25" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
-      <c r="B25" s="20" t="s">
+      <c r="A25" s="26"/>
+      <c r="B25" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="22">
-        <v>0</v>
-      </c>
-      <c r="F25" s="22">
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="17">
+        <v>0</v>
+      </c>
+      <c r="F25" s="17">
         <f t="shared" ref="F25:O25" si="2">E25</f>
         <v>0</v>
       </c>
-      <c r="G25" s="22">
+      <c r="G25" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H25" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I25" s="22">
+      <c r="I25" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J25" s="22">
+      <c r="J25" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K25" s="22">
+      <c r="K25" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L25" s="22">
+      <c r="L25" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M25" s="22">
+      <c r="M25" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N25" s="22">
+      <c r="N25" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O25" s="22">
+      <c r="O25" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="23" t="s">
+      <c r="A26" s="26"/>
+      <c r="B26" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24">
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19">
         <v>7</v>
       </c>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
     </row>
     <row r="27" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="23" t="s">
+      <c r="A27" s="26"/>
+      <c r="B27" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24">
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19">
         <v>7</v>
       </c>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
     </row>
     <row r="28" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="23" t="s">
+      <c r="A28" s="26"/>
+      <c r="B28" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
     </row>
     <row r="29" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="23" t="s">
+      <c r="A29" s="26"/>
+      <c r="B29" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
     </row>
     <row r="30" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
-      <c r="B30" s="20" t="s">
+      <c r="A30" s="26"/>
+      <c r="B30" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="22">
-        <v>0</v>
-      </c>
-      <c r="F30" s="22">
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="17">
+        <v>0</v>
+      </c>
+      <c r="F30" s="17">
         <f t="shared" ref="F30:O30" si="3">E30</f>
         <v>0</v>
       </c>
-      <c r="G30" s="22">
+      <c r="G30" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H30" s="22">
+      <c r="H30" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I30" s="22">
+      <c r="I30" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J30" s="22">
+      <c r="J30" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K30" s="22">
+      <c r="K30" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L30" s="22">
+      <c r="L30" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M30" s="22">
+      <c r="M30" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N30" s="22">
+      <c r="N30" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O30" s="22">
+      <c r="O30" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="23" t="s">
+      <c r="A31" s="26"/>
+      <c r="B31" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
     </row>
     <row r="32" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
     </row>
     <row r="33" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
     </row>
     <row r="34" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
     </row>
     <row r="35" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="2"/>
-      <c r="B35" s="20" t="s">
+      <c r="A35" s="26"/>
+      <c r="B35" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="22">
-        <v>0</v>
-      </c>
-      <c r="F35" s="22">
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="17">
+        <v>0</v>
+      </c>
+      <c r="F35" s="17">
         <f t="shared" ref="F35:O35" si="4">E35</f>
         <v>0</v>
       </c>
-      <c r="G35" s="22">
+      <c r="G35" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H35" s="22">
+      <c r="H35" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I35" s="22">
+      <c r="I35" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J35" s="22">
+      <c r="J35" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K35" s="22">
+      <c r="K35" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L35" s="22">
+      <c r="L35" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M35" s="22">
+      <c r="M35" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N35" s="22">
+      <c r="N35" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O35" s="22">
+      <c r="O35" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="2"/>
-      <c r="B36" s="23" t="s">
+      <c r="A36" s="26"/>
+      <c r="B36" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="24"/>
-      <c r="O36" s="24"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
     </row>
     <row r="37" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2"/>
-      <c r="B37" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="24"/>
-      <c r="O37" s="24"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
     </row>
     <row r="38" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="24"/>
-      <c r="O38" s="24"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
     </row>
     <row r="39" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="24"/>
+      <c r="A39" s="26"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
     </row>
     <row r="40" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="2"/>
-      <c r="B40" s="20" t="s">
+      <c r="A40" s="26"/>
+      <c r="B40" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="22">
-        <v>0</v>
-      </c>
-      <c r="F40" s="22">
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="17">
+        <v>0</v>
+      </c>
+      <c r="F40" s="17">
         <f t="shared" ref="F40:O40" si="5">E40</f>
         <v>0</v>
       </c>
-      <c r="G40" s="22">
+      <c r="G40" s="17">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H40" s="22">
+      <c r="H40" s="17">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I40" s="22">
+      <c r="I40" s="17">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J40" s="22">
+      <c r="J40" s="17">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K40" s="22">
+      <c r="K40" s="17">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L40" s="22">
+      <c r="L40" s="17">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M40" s="22">
+      <c r="M40" s="17">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N40" s="22">
+      <c r="N40" s="17">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O40" s="22">
+      <c r="O40" s="17">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+      <c r="A41" s="27">
         <v>2</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C41" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="24"/>
-      <c r="N41" s="24"/>
-      <c r="O41" s="24"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
     </row>
     <row r="42" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="23" t="s">
+      <c r="A42" s="27"/>
+      <c r="B42" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="24"/>
-      <c r="M42" s="24"/>
-      <c r="N42" s="24"/>
-      <c r="O42" s="24"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
     </row>
     <row r="43" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="24"/>
-      <c r="M43" s="24"/>
-      <c r="N43" s="24"/>
-      <c r="O43" s="24"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
     </row>
     <row r="44" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="24"/>
-      <c r="M44" s="24"/>
-      <c r="N44" s="24"/>
-      <c r="O44" s="24"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
     </row>
     <row r="45" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="1"/>
-      <c r="B45" s="20" t="s">
+      <c r="A45" s="27"/>
+      <c r="B45" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="22">
-        <v>0</v>
-      </c>
-      <c r="F45" s="22">
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="17">
+        <v>0</v>
+      </c>
+      <c r="F45" s="17">
         <f t="shared" ref="F45:O45" si="6">E45</f>
         <v>0</v>
       </c>
-      <c r="G45" s="22">
+      <c r="G45" s="17">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H45" s="22">
+      <c r="H45" s="17">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I45" s="22">
+      <c r="I45" s="17">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J45" s="22">
+      <c r="J45" s="17">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K45" s="22">
+      <c r="K45" s="17">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L45" s="22">
+      <c r="L45" s="17">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M45" s="22">
+      <c r="M45" s="17">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N45" s="22">
+      <c r="N45" s="17">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O45" s="22">
+      <c r="O45" s="17">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-      <c r="B46" s="23" t="s">
+      <c r="A46" s="27"/>
+      <c r="B46" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="C46" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="24"/>
-      <c r="M46" s="24"/>
-      <c r="N46" s="24"/>
-      <c r="O46" s="24"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
     </row>
     <row r="47" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-      <c r="B47" s="23" t="s">
+      <c r="A47" s="27"/>
+      <c r="B47" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="24" t="s">
+      <c r="C47" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="24"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
     </row>
     <row r="48" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="24"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="24"/>
-      <c r="M48" s="24"/>
-      <c r="N48" s="24"/>
-      <c r="O48" s="24"/>
+      <c r="A48" s="27"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
     </row>
     <row r="49" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="24"/>
-      <c r="K49" s="24"/>
-      <c r="L49" s="24"/>
-      <c r="M49" s="24"/>
-      <c r="N49" s="24"/>
-      <c r="O49" s="24"/>
+      <c r="A49" s="27"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
     </row>
     <row r="50" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="1"/>
-      <c r="B50" s="20" t="s">
+      <c r="A50" s="27"/>
+      <c r="B50" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="22">
-        <v>0</v>
-      </c>
-      <c r="F50" s="22">
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="17">
+        <v>0</v>
+      </c>
+      <c r="F50" s="17">
         <f t="shared" ref="F50:O50" si="7">E50</f>
         <v>0</v>
       </c>
-      <c r="G50" s="22">
+      <c r="G50" s="17">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H50" s="22">
+      <c r="H50" s="17">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I50" s="22">
+      <c r="I50" s="17">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J50" s="22">
+      <c r="J50" s="17">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K50" s="22">
+      <c r="K50" s="17">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L50" s="22">
+      <c r="L50" s="17">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M50" s="22">
+      <c r="M50" s="17">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N50" s="22">
+      <c r="N50" s="17">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O50" s="22">
+      <c r="O50" s="17">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
-      <c r="B51" s="23" t="s">
+      <c r="A51" s="27"/>
+      <c r="B51" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="24"/>
-      <c r="M51" s="24"/>
-      <c r="N51" s="24"/>
-      <c r="O51" s="24"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
     </row>
     <row r="52" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
-      <c r="B52" s="23" t="s">
+      <c r="A52" s="27"/>
+      <c r="B52" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="24"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="24"/>
-      <c r="M52" s="24"/>
-      <c r="N52" s="24"/>
-      <c r="O52" s="24"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19"/>
     </row>
     <row r="53" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="24"/>
-      <c r="K53" s="24"/>
-      <c r="L53" s="24"/>
-      <c r="M53" s="24"/>
-      <c r="N53" s="24"/>
-      <c r="O53" s="24"/>
+      <c r="A53" s="27"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
     </row>
     <row r="54" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="24"/>
-      <c r="K54" s="24"/>
-      <c r="L54" s="24"/>
-      <c r="M54" s="24"/>
-      <c r="N54" s="24"/>
-      <c r="O54" s="24"/>
+      <c r="A54" s="27"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
     </row>
     <row r="55" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="1"/>
-      <c r="B55" s="20" t="s">
+      <c r="A55" s="27"/>
+      <c r="B55" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="22">
-        <v>0</v>
-      </c>
-      <c r="F55" s="22">
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="17">
+        <v>0</v>
+      </c>
+      <c r="F55" s="17">
         <f t="shared" ref="F55:O55" si="8">E55</f>
         <v>0</v>
       </c>
-      <c r="G55" s="22">
+      <c r="G55" s="17">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H55" s="22">
+      <c r="H55" s="17">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I55" s="22">
+      <c r="I55" s="17">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J55" s="22">
+      <c r="J55" s="17">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K55" s="22">
+      <c r="K55" s="17">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L55" s="22">
+      <c r="L55" s="17">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M55" s="22">
+      <c r="M55" s="17">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N55" s="22">
+      <c r="N55" s="17">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O55" s="22">
+      <c r="O55" s="17">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B56" s="23" t="s">
+      <c r="B56" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C56" s="24" t="s">
+      <c r="C56" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="24"/>
-      <c r="J56" s="24"/>
-      <c r="K56" s="24"/>
-      <c r="L56" s="24"/>
-      <c r="M56" s="24"/>
-      <c r="N56" s="24"/>
-      <c r="O56" s="24"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="19"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="24" t="s">
+      <c r="C57" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="24"/>
-      <c r="K57" s="24"/>
-      <c r="L57" s="24"/>
-      <c r="M57" s="24"/>
-      <c r="N57" s="24"/>
-      <c r="O57" s="24"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="19"/>
+      <c r="O57" s="19"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B58" s="23"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="24"/>
-      <c r="J58" s="24"/>
-      <c r="K58" s="24"/>
-      <c r="L58" s="24"/>
-      <c r="M58" s="24"/>
-      <c r="N58" s="24"/>
-      <c r="O58" s="24"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
+      <c r="O58" s="19"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B59" s="23"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="24"/>
-      <c r="J59" s="24"/>
-      <c r="K59" s="24"/>
-      <c r="L59" s="24"/>
-      <c r="M59" s="24"/>
-      <c r="N59" s="24"/>
-      <c r="O59" s="24"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="19"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B60" s="27" t="s">
+      <c r="B60" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27">
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22">
         <f t="shared" ref="E60:O60" si="9">SUM(E7:E59)</f>
         <v>35</v>
       </c>
-      <c r="F60" s="27">
+      <c r="F60" s="22">
         <f t="shared" si="9"/>
         <v>27</v>
       </c>
-      <c r="G60" s="27">
+      <c r="G60" s="22">
         <f t="shared" si="9"/>
         <v>22</v>
       </c>
-      <c r="H60" s="27">
+      <c r="H60" s="22">
         <f t="shared" si="9"/>
         <v>17</v>
       </c>
-      <c r="I60" s="27">
+      <c r="I60" s="22">
         <f t="shared" si="9"/>
         <v>15</v>
       </c>
-      <c r="J60" s="27">
+      <c r="J60" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K60" s="27">
+      <c r="K60" s="22">
         <f t="shared" si="9"/>
         <v>14</v>
       </c>
-      <c r="L60" s="27">
+      <c r="L60" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M60" s="27">
+      <c r="M60" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N60" s="27">
+      <c r="N60" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O60" s="27">
+      <c r="O60" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B61" s="27" t="s">
+      <c r="B61" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27">
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22">
         <f>Paramètres!D2*Paramètres!D4*COLUMNS(F6:O6)</f>
         <v>280</v>
       </c>
-      <c r="F61" s="27">
+      <c r="F61" s="22">
         <f>E61-(Paramètres!$D2*Paramètres!$D4)</f>
         <v>252</v>
       </c>
-      <c r="G61" s="27">
+      <c r="G61" s="22">
         <f>F61-(Paramètres!$D2*Paramètres!$D4)</f>
         <v>224</v>
       </c>
-      <c r="H61" s="27">
+      <c r="H61" s="22">
         <f>G61-(Paramètres!$D2*Paramètres!$D4)</f>
         <v>196</v>
       </c>
-      <c r="I61" s="27">
+      <c r="I61" s="22">
         <f>H61-(Paramètres!$D2*Paramètres!$D4)</f>
         <v>168</v>
       </c>
-      <c r="J61" s="27">
+      <c r="J61" s="22">
         <f>I61-(Paramètres!$D2*Paramètres!$D4)</f>
         <v>140</v>
       </c>
-      <c r="K61" s="27">
+      <c r="K61" s="22">
         <f>J61-(Paramètres!$D2*Paramètres!$D4)</f>
         <v>112</v>
       </c>
-      <c r="L61" s="27">
+      <c r="L61" s="22">
         <f>K61-(Paramètres!$D2*Paramètres!$D4)</f>
         <v>84</v>
       </c>
-      <c r="M61" s="27">
+      <c r="M61" s="22">
         <f>L61-(Paramètres!$D2*Paramètres!$D4)</f>
         <v>56</v>
       </c>
-      <c r="N61" s="27">
+      <c r="N61" s="22">
         <f>M61-(Paramètres!$D2*Paramètres!$D4)</f>
         <v>28</v>
       </c>
-      <c r="O61" s="27">
+      <c r="O61" s="22">
         <f>N61-(Paramètres!$D2*Paramètres!$D4)</f>
         <v>0</v>
       </c>

--- a/Suivi.xlsx
+++ b/Suivi.xlsx
@@ -3,14 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camil\Documents\ENI\Modules\ProjetJEE\ProjetEncheres\ENI-Encheres\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E397CC8-C0F9-4B87-B972-D65501E25B1B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C453BE1F-04B1-4C2A-ADBA-BB3F23F9BCC3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13148" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="23304" windowHeight="13224" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Paramètres" sheetId="1" r:id="rId1"/>
@@ -18,6 +13,7 @@
     <sheet name="Pilotage" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="65">
   <si>
     <t>Paramètres à renseigner avant d'exploiter l'onglet de suivi</t>
   </si>
@@ -1485,18 +1481,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.33203125" customWidth="1"/>
     <col min="3" max="3" width="34.6640625" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:5" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
@@ -1504,7 +1500,7 @@
       <c r="D1" s="23"/>
       <c r="E1" s="23"/>
     </row>
-    <row r="2" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1512,10 +1508,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1523,7 +1519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
@@ -1531,50 +1527,52 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="C6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="D6" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="C8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="C12" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="C13" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="C14" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="C15" s="11" t="s">
         <v>12</v>
       </c>
@@ -1602,7 +1600,7 @@
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="91.6640625" customWidth="1"/>
     <col min="3" max="3" width="30.5546875" customWidth="1"/>
@@ -1641,7 +1639,7 @@
       <c r="N2" s="12"/>
       <c r="O2" s="12"/>
     </row>
-    <row r="3" spans="1:16" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>13</v>
       </c>
@@ -1693,7 +1691,7 @@
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
     </row>
-    <row r="6" spans="1:16" ht="31.3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>14</v>
       </c>
@@ -1740,7 +1738,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="18.2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="15" t="s">
         <v>29</v>
@@ -1931,7 +1929,7 @@
       <c r="N14" s="19"/>
       <c r="O14" s="19"/>
     </row>
-    <row r="15" spans="1:16" ht="18.2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="26">
         <v>1</v>
       </c>
@@ -2111,7 +2109,7 @@
       <c r="N19" s="19"/>
       <c r="O19" s="19"/>
     </row>
-    <row r="20" spans="1:15" ht="18.2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="26"/>
       <c r="B20" s="15" t="s">
         <v>38</v>
@@ -3182,7 +3180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="B61" s="22" t="s">
         <v>63</v>
       </c>
@@ -3275,7 +3273,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Suivi.xlsx
+++ b/Suivi.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C453BE1F-04B1-4C2A-ADBA-BB3F23F9BCC3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\git\ENI-Encheres\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988486A3-C7E0-4270-8183-CC20C6237395}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="23304" windowHeight="13224" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3165" yWindow="2475" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Paramètres" sheetId="1" r:id="rId1"/>
     <sheet name="Suivi" sheetId="2" r:id="rId2"/>
     <sheet name="Pilotage" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="65">
   <si>
     <t>Paramètres à renseigner avant d'exploiter l'onglet de suivi</t>
   </si>
@@ -1485,14 +1489,14 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
-    <col min="3" max="3" width="34.6640625" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:5" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
@@ -1500,7 +1504,7 @@
       <c r="D1" s="23"/>
       <c r="E1" s="23"/>
     </row>
-    <row r="2" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1508,10 +1512,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1519,7 +1523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
@@ -1527,7 +1531,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C6" s="6" t="s">
         <v>4</v>
       </c>
@@ -1535,44 +1539,46 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="D7" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C12" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C13" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C14" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C15" s="11" t="s">
         <v>12</v>
       </c>
@@ -1600,14 +1606,14 @@
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="91.6640625" customWidth="1"/>
-    <col min="3" max="3" width="30.5546875" customWidth="1"/>
-    <col min="5" max="5" width="36.6640625" customWidth="1"/>
+    <col min="2" max="2" width="91.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
@@ -1623,7 +1629,7 @@
       <c r="N1" s="12"/>
       <c r="O1" s="12"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -1639,7 +1645,7 @@
       <c r="N2" s="12"/>
       <c r="O2" s="12"/>
     </row>
-    <row r="3" spans="1:16" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="41.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>13</v>
       </c>
@@ -1659,7 +1665,7 @@
       <c r="O3" s="24"/>
       <c r="P3" s="24"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -1675,7 +1681,7 @@
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -1691,7 +1697,7 @@
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
     </row>
-    <row r="6" spans="1:16" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>14</v>
       </c>
@@ -1738,7 +1744,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="15" t="s">
         <v>29</v>
@@ -1788,7 +1794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>0</v>
       </c>
@@ -1815,7 +1821,7 @@
       <c r="N8" s="19"/>
       <c r="O8" s="19"/>
     </row>
-    <row r="9" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="18" t="s">
         <v>31</v>
@@ -1840,7 +1846,7 @@
       <c r="N9" s="19"/>
       <c r="O9" s="19"/>
     </row>
-    <row r="10" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
       <c r="B10" s="20" t="s">
         <v>32</v>
@@ -1861,7 +1867,7 @@
       <c r="N10" s="19"/>
       <c r="O10" s="19"/>
     </row>
-    <row r="11" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
@@ -1878,7 +1884,7 @@
       <c r="N11" s="19"/>
       <c r="O11" s="19"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="25"/>
       <c r="B12" s="21"/>
       <c r="C12" s="19"/>
@@ -1895,7 +1901,7 @@
       <c r="N12" s="19"/>
       <c r="O12" s="19"/>
     </row>
-    <row r="13" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
       <c r="B13" s="21"/>
       <c r="C13" s="19"/>
@@ -1912,7 +1918,7 @@
       <c r="N13" s="19"/>
       <c r="O13" s="19"/>
     </row>
-    <row r="14" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
       <c r="B14" s="21"/>
       <c r="C14" s="19"/>
@@ -1929,7 +1935,7 @@
       <c r="N14" s="19"/>
       <c r="O14" s="19"/>
     </row>
-    <row r="15" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="26">
         <v>1</v>
       </c>
@@ -1979,7 +1985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
       <c r="B16" s="21" t="s">
         <v>34</v>
@@ -2010,7 +2016,7 @@
       <c r="N16" s="19"/>
       <c r="O16" s="19"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
       <c r="B17" s="21" t="s">
         <v>35</v>
@@ -2041,7 +2047,7 @@
       <c r="N17" s="19"/>
       <c r="O17" s="19"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
       <c r="B18" s="21" t="s">
         <v>36</v>
@@ -2076,7 +2082,7 @@
       <c r="N18" s="19"/>
       <c r="O18" s="19"/>
     </row>
-    <row r="19" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
       <c r="B19" s="21" t="s">
         <v>37</v>
@@ -2109,7 +2115,7 @@
       <c r="N19" s="19"/>
       <c r="O19" s="19"/>
     </row>
-    <row r="20" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="26"/>
       <c r="B20" s="15" t="s">
         <v>38</v>
@@ -2160,7 +2166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
       <c r="B21" s="21" t="s">
         <v>39</v>
@@ -2181,7 +2187,7 @@
       <c r="N21" s="19"/>
       <c r="O21" s="19"/>
     </row>
-    <row r="22" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="21" t="s">
         <v>40</v>
@@ -2200,7 +2206,7 @@
       <c r="N22" s="19"/>
       <c r="O22" s="19"/>
     </row>
-    <row r="23" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
       <c r="B23" s="21" t="s">
         <v>41</v>
@@ -2221,7 +2227,7 @@
       <c r="N23" s="19"/>
       <c r="O23" s="19"/>
     </row>
-    <row r="24" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
       <c r="B24" s="21" t="s">
         <v>42</v>
@@ -2242,7 +2248,7 @@
       <c r="N24" s="19"/>
       <c r="O24" s="19"/>
     </row>
-    <row r="25" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="26"/>
       <c r="B25" s="15" t="s">
         <v>43</v>
@@ -2293,7 +2299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="26"/>
       <c r="B26" s="18" t="s">
         <v>44</v>
@@ -2316,7 +2322,7 @@
       <c r="N26" s="19"/>
       <c r="O26" s="19"/>
     </row>
-    <row r="27" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
       <c r="B27" s="18" t="s">
         <v>45</v>
@@ -2339,7 +2345,7 @@
       <c r="N27" s="19"/>
       <c r="O27" s="19"/>
     </row>
-    <row r="28" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="26"/>
       <c r="B28" s="18" t="s">
         <v>46</v>
@@ -2358,7 +2364,7 @@
       <c r="N28" s="19"/>
       <c r="O28" s="19"/>
     </row>
-    <row r="29" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="18" t="s">
         <v>47</v>
@@ -2377,7 +2383,7 @@
       <c r="N29" s="19"/>
       <c r="O29" s="19"/>
     </row>
-    <row r="30" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="26"/>
       <c r="B30" s="15" t="s">
         <v>48</v>
@@ -2428,7 +2434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="26"/>
       <c r="B31" s="18" t="s">
         <v>49</v>
@@ -2449,7 +2455,7 @@
       <c r="N31" s="19"/>
       <c r="O31" s="19"/>
     </row>
-    <row r="32" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="26"/>
       <c r="B32" s="18"/>
       <c r="C32" s="19"/>
@@ -2466,7 +2472,7 @@
       <c r="N32" s="19"/>
       <c r="O32" s="19"/>
     </row>
-    <row r="33" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="26"/>
       <c r="B33" s="18"/>
       <c r="C33" s="19"/>
@@ -2483,7 +2489,7 @@
       <c r="N33" s="19"/>
       <c r="O33" s="19"/>
     </row>
-    <row r="34" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="26"/>
       <c r="B34" s="18"/>
       <c r="C34" s="19"/>
@@ -2500,7 +2506,7 @@
       <c r="N34" s="19"/>
       <c r="O34" s="19"/>
     </row>
-    <row r="35" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="26"/>
       <c r="B35" s="15" t="s">
         <v>50</v>
@@ -2551,7 +2557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="26"/>
       <c r="B36" s="18" t="s">
         <v>51</v>
@@ -2572,7 +2578,7 @@
       <c r="N36" s="19"/>
       <c r="O36" s="19"/>
     </row>
-    <row r="37" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="26"/>
       <c r="B37" s="18"/>
       <c r="C37" s="19"/>
@@ -2589,7 +2595,7 @@
       <c r="N37" s="19"/>
       <c r="O37" s="19"/>
     </row>
-    <row r="38" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="26"/>
       <c r="B38" s="18"/>
       <c r="C38" s="19"/>
@@ -2606,7 +2612,7 @@
       <c r="N38" s="19"/>
       <c r="O38" s="19"/>
     </row>
-    <row r="39" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="26"/>
       <c r="B39" s="18"/>
       <c r="C39" s="19"/>
@@ -2623,7 +2629,7 @@
       <c r="N39" s="19"/>
       <c r="O39" s="19"/>
     </row>
-    <row r="40" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="26"/>
       <c r="B40" s="15" t="s">
         <v>52</v>
@@ -2674,7 +2680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="27">
         <v>2</v>
       </c>
@@ -2697,7 +2703,7 @@
       <c r="N41" s="19"/>
       <c r="O41" s="19"/>
     </row>
-    <row r="42" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="27"/>
       <c r="B42" s="18" t="s">
         <v>41</v>
@@ -2718,7 +2724,7 @@
       <c r="N42" s="19"/>
       <c r="O42" s="19"/>
     </row>
-    <row r="43" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="27"/>
       <c r="B43" s="18"/>
       <c r="C43" s="19"/>
@@ -2735,7 +2741,7 @@
       <c r="N43" s="19"/>
       <c r="O43" s="19"/>
     </row>
-    <row r="44" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="27"/>
       <c r="B44" s="18"/>
       <c r="C44" s="19"/>
@@ -2752,7 +2758,7 @@
       <c r="N44" s="19"/>
       <c r="O44" s="19"/>
     </row>
-    <row r="45" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="27"/>
       <c r="B45" s="15" t="s">
         <v>54</v>
@@ -2803,7 +2809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="27"/>
       <c r="B46" s="18" t="s">
         <v>55</v>
@@ -2824,7 +2830,7 @@
       <c r="N46" s="19"/>
       <c r="O46" s="19"/>
     </row>
-    <row r="47" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="27"/>
       <c r="B47" s="18" t="s">
         <v>56</v>
@@ -2845,7 +2851,7 @@
       <c r="N47" s="19"/>
       <c r="O47" s="19"/>
     </row>
-    <row r="48" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="27"/>
       <c r="B48" s="18"/>
       <c r="C48" s="19"/>
@@ -2862,7 +2868,7 @@
       <c r="N48" s="19"/>
       <c r="O48" s="19"/>
     </row>
-    <row r="49" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="27"/>
       <c r="B49" s="18"/>
       <c r="C49" s="19"/>
@@ -2879,7 +2885,7 @@
       <c r="N49" s="19"/>
       <c r="O49" s="19"/>
     </row>
-    <row r="50" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="27"/>
       <c r="B50" s="15" t="s">
         <v>57</v>
@@ -2930,7 +2936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="27"/>
       <c r="B51" s="18" t="s">
         <v>58</v>
@@ -2951,7 +2957,7 @@
       <c r="N51" s="19"/>
       <c r="O51" s="19"/>
     </row>
-    <row r="52" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="27"/>
       <c r="B52" s="18" t="s">
         <v>59</v>
@@ -2972,7 +2978,7 @@
       <c r="N52" s="19"/>
       <c r="O52" s="19"/>
     </row>
-    <row r="53" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="27"/>
       <c r="B53" s="18"/>
       <c r="C53" s="19"/>
@@ -2989,7 +2995,7 @@
       <c r="N53" s="19"/>
       <c r="O53" s="19"/>
     </row>
-    <row r="54" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="27"/>
       <c r="B54" s="18"/>
       <c r="C54" s="19"/>
@@ -3006,7 +3012,7 @@
       <c r="N54" s="19"/>
       <c r="O54" s="19"/>
     </row>
-    <row r="55" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="27"/>
       <c r="B55" s="15" t="s">
         <v>60</v>
@@ -3057,7 +3063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B56" s="18" t="s">
         <v>61</v>
       </c>
@@ -3077,7 +3083,7 @@
       <c r="N56" s="19"/>
       <c r="O56" s="19"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B57" s="18" t="s">
         <v>46</v>
       </c>
@@ -3097,7 +3103,7 @@
       <c r="N57" s="19"/>
       <c r="O57" s="19"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B58" s="18"/>
       <c r="C58" s="19"/>
       <c r="D58" s="19"/>
@@ -3113,7 +3119,7 @@
       <c r="N58" s="19"/>
       <c r="O58" s="19"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B59" s="18"/>
       <c r="C59" s="19"/>
       <c r="D59" s="19"/>
@@ -3129,7 +3135,7 @@
       <c r="N59" s="19"/>
       <c r="O59" s="19"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B60" s="22" t="s">
         <v>62</v>
       </c>
@@ -3180,7 +3186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B61" s="22" t="s">
         <v>63</v>
       </c>
@@ -3273,7 +3279,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Suivi.xlsx
+++ b/Suivi.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\git\ENI-Encheres\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camil\Documents\ENI\Modules\ProjetJEE\ProjetEncheres\ENI-Encheres\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988486A3-C7E0-4270-8183-CC20C6237395}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79C4219-2E97-4C53-9F21-B3633A945FF1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3165" yWindow="2475" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13148" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Paramètres" sheetId="1" r:id="rId1"/>
     <sheet name="Suivi" sheetId="2" r:id="rId2"/>
     <sheet name="Pilotage" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="64">
   <si>
     <t>Paramètres à renseigner avant d'exploiter l'onglet de suivi</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>Jeremy Albert</t>
-  </si>
-  <si>
-    <t>Tous le monde</t>
   </si>
   <si>
     <t>Statuts des tâches</t>
@@ -157,9 +154,6 @@
     <t>couche BLL</t>
   </si>
   <si>
-    <t>Tests fonctionnels</t>
-  </si>
-  <si>
     <t>1003 S'inscrire</t>
   </si>
   <si>
@@ -199,9 +193,6 @@
     <t>1006 Afficher profil</t>
   </si>
   <si>
-    <t>Affichage profil autre utilisateur</t>
-  </si>
-  <si>
     <t>1007 Modification profil</t>
   </si>
   <si>
@@ -238,7 +229,13 @@
     <t>Total heures (heures travaillées par jour * homme(s))</t>
   </si>
   <si>
-    <t>TEST</t>
+    <t>Tout le monde</t>
+  </si>
+  <si>
+    <t>Tests unitaires</t>
+  </si>
+  <si>
+    <t>Affichage profil autre utilisateur + autre profil</t>
   </si>
 </sst>
 </file>
@@ -1485,18 +1482,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" ht="65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
@@ -1504,7 +1501,7 @@
       <c r="D1" s="23"/>
       <c r="E1" s="23"/>
     </row>
-    <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1512,10 +1509,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
       <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1523,64 +1520,58 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
       <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
       <c r="C6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
       <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
       <c r="C8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
       <c r="C9" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="C11" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C11" s="4" t="s">
+    <row r="12" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="C12" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C12" s="10" t="s">
+    <row r="13" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="C13" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C13" s="10" t="s">
+    <row r="14" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="C14" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C14" s="10" t="s">
+    <row r="15" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="C15" s="11" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C15" s="11" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1602,18 +1593,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView topLeftCell="B22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="91.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" customWidth="1"/>
-    <col min="5" max="5" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="91.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.5546875" customWidth="1"/>
+    <col min="5" max="5" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
@@ -1629,7 +1620,7 @@
       <c r="N1" s="12"/>
       <c r="O1" s="12"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -1645,9 +1636,9 @@
       <c r="N2" s="12"/>
       <c r="O2" s="12"/>
     </row>
-    <row r="3" spans="1:16" ht="41.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="41.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
@@ -1665,7 +1656,7 @@
       <c r="O3" s="24"/>
       <c r="P3" s="24"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -1681,7 +1672,7 @@
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -1697,57 +1688,57 @@
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
     </row>
-    <row r="6" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="31.3" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="C6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="E6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="F6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="G6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="H6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="I6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="J6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="K6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="L6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="M6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="N6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="14" t="s">
+      <c r="O6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="O6" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:16" ht="18.2" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
@@ -1794,12 +1785,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25">
         <v>0</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -1821,10 +1812,10 @@
       <c r="N8" s="19"/>
       <c r="O8" s="19"/>
     </row>
-    <row r="9" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25"/>
       <c r="B9" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
@@ -1846,10 +1837,10 @@
       <c r="N9" s="19"/>
       <c r="O9" s="19"/>
     </row>
-    <row r="10" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25"/>
       <c r="B10" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
@@ -1867,7 +1858,7 @@
       <c r="N10" s="19"/>
       <c r="O10" s="19"/>
     </row>
-    <row r="11" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25"/>
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
@@ -1884,7 +1875,7 @@
       <c r="N11" s="19"/>
       <c r="O11" s="19"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
       <c r="B12" s="21"/>
       <c r="C12" s="19"/>
@@ -1901,7 +1892,7 @@
       <c r="N12" s="19"/>
       <c r="O12" s="19"/>
     </row>
-    <row r="13" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="25"/>
       <c r="B13" s="21"/>
       <c r="C13" s="19"/>
@@ -1918,7 +1909,7 @@
       <c r="N13" s="19"/>
       <c r="O13" s="19"/>
     </row>
-    <row r="14" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="25"/>
       <c r="B14" s="21"/>
       <c r="C14" s="19"/>
@@ -1935,12 +1926,12 @@
       <c r="N14" s="19"/>
       <c r="O14" s="19"/>
     </row>
-    <row r="15" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="18.2" x14ac:dyDescent="0.35">
       <c r="A15" s="26">
         <v>1</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -1965,11 +1956,9 @@
         <v>0</v>
       </c>
       <c r="K15" s="17">
-        <f>J15</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L15" s="17">
-        <f>K15</f>
         <v>0</v>
       </c>
       <c r="M15" s="17">
@@ -1985,16 +1974,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="26"/>
       <c r="B16" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="19">
         <v>2</v>
@@ -2016,16 +2005,16 @@
       <c r="N16" s="19"/>
       <c r="O16" s="19"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="26"/>
       <c r="B17" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="19">
         <v>3</v>
@@ -2047,16 +2036,16 @@
       <c r="N17" s="19"/>
       <c r="O17" s="19"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="26"/>
       <c r="B18" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18" s="19">
         <v>3</v>
@@ -2082,16 +2071,16 @@
       <c r="N18" s="19"/>
       <c r="O18" s="19"/>
     </row>
-    <row r="19" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="26"/>
       <c r="B19" s="21" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E19" s="19">
         <v>3</v>
@@ -2109,16 +2098,20 @@
         <v>0</v>
       </c>
       <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
+      <c r="K19" s="19">
+        <v>4</v>
+      </c>
+      <c r="L19" s="19">
+        <v>0</v>
+      </c>
       <c r="M19" s="19"/>
       <c r="N19" s="19"/>
       <c r="O19" s="19"/>
     </row>
-    <row r="20" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="18.2" x14ac:dyDescent="0.35">
       <c r="A20" s="26"/>
       <c r="B20" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
@@ -2166,10 +2159,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="26"/>
       <c r="B21" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>4</v>
@@ -2187,12 +2180,14 @@
       <c r="N21" s="19"/>
       <c r="O21" s="19"/>
     </row>
-    <row r="22" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="26"/>
       <c r="B22" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="19"/>
+        <v>38</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
@@ -2206,10 +2201,10 @@
       <c r="N22" s="19"/>
       <c r="O22" s="19"/>
     </row>
-    <row r="23" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="26"/>
       <c r="B23" s="21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>4</v>
@@ -2227,10 +2222,10 @@
       <c r="N23" s="19"/>
       <c r="O23" s="19"/>
     </row>
-    <row r="24" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="26"/>
       <c r="B24" s="21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>4</v>
@@ -2248,10 +2243,10 @@
       <c r="N24" s="19"/>
       <c r="O24" s="19"/>
     </row>
-    <row r="25" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="26"/>
       <c r="B25" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
@@ -2299,10 +2294,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="26"/>
       <c r="B26" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>6</v>
@@ -2322,10 +2317,10 @@
       <c r="N26" s="19"/>
       <c r="O26" s="19"/>
     </row>
-    <row r="27" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="26"/>
       <c r="B27" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C27" s="19" t="s">
         <v>6</v>
@@ -2345,10 +2340,10 @@
       <c r="N27" s="19"/>
       <c r="O27" s="19"/>
     </row>
-    <row r="28" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="26"/>
       <c r="B28" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
@@ -2364,10 +2359,10 @@
       <c r="N28" s="19"/>
       <c r="O28" s="19"/>
     </row>
-    <row r="29" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="26"/>
       <c r="B29" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
@@ -2383,42 +2378,41 @@
       <c r="N29" s="19"/>
       <c r="O29" s="19"/>
     </row>
-    <row r="30" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="26"/>
       <c r="B30" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
       <c r="E30" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="17">
         <f t="shared" ref="F30:O30" si="3">E30</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="17">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M30" s="17">
@@ -2434,28 +2428,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="26"/>
       <c r="B31" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
+      <c r="E31" s="19">
+        <v>1</v>
+      </c>
+      <c r="F31" s="19">
+        <v>1</v>
+      </c>
+      <c r="G31" s="19">
+        <v>1</v>
+      </c>
+      <c r="H31" s="19">
+        <v>1</v>
+      </c>
+      <c r="I31" s="19">
+        <v>1</v>
+      </c>
+      <c r="J31" s="19">
+        <v>1</v>
+      </c>
+      <c r="K31" s="19">
+        <v>1</v>
+      </c>
+      <c r="L31" s="19">
+        <v>0</v>
+      </c>
       <c r="M31" s="19"/>
       <c r="N31" s="19"/>
       <c r="O31" s="19"/>
     </row>
-    <row r="32" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="26"/>
       <c r="B32" s="18"/>
       <c r="C32" s="19"/>
@@ -2472,7 +2482,7 @@
       <c r="N32" s="19"/>
       <c r="O32" s="19"/>
     </row>
-    <row r="33" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="26"/>
       <c r="B33" s="18"/>
       <c r="C33" s="19"/>
@@ -2489,7 +2499,7 @@
       <c r="N33" s="19"/>
       <c r="O33" s="19"/>
     </row>
-    <row r="34" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="26"/>
       <c r="B34" s="18"/>
       <c r="C34" s="19"/>
@@ -2506,26 +2516,24 @@
       <c r="N34" s="19"/>
       <c r="O34" s="19"/>
     </row>
-    <row r="35" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="26"/>
       <c r="B35" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
       <c r="E35" s="17">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F35" s="17">
         <f t="shared" ref="F35:O35" si="4">E35</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G35" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H35" s="17">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I35" s="17">
@@ -2557,19 +2565,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="26"/>
       <c r="B36" s="18" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C36" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
+      <c r="E36" s="19">
+        <v>12</v>
+      </c>
+      <c r="F36" s="19">
+        <v>12</v>
+      </c>
+      <c r="G36" s="19">
+        <v>5</v>
+      </c>
+      <c r="H36" s="19">
+        <v>0</v>
+      </c>
       <c r="I36" s="19"/>
       <c r="J36" s="19"/>
       <c r="K36" s="19"/>
@@ -2578,7 +2594,7 @@
       <c r="N36" s="19"/>
       <c r="O36" s="19"/>
     </row>
-    <row r="37" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="26"/>
       <c r="B37" s="18"/>
       <c r="C37" s="19"/>
@@ -2595,7 +2611,7 @@
       <c r="N37" s="19"/>
       <c r="O37" s="19"/>
     </row>
-    <row r="38" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="26"/>
       <c r="B38" s="18"/>
       <c r="C38" s="19"/>
@@ -2612,7 +2628,7 @@
       <c r="N38" s="19"/>
       <c r="O38" s="19"/>
     </row>
-    <row r="39" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="26"/>
       <c r="B39" s="18"/>
       <c r="C39" s="19"/>
@@ -2629,102 +2645,126 @@
       <c r="N39" s="19"/>
       <c r="O39" s="19"/>
     </row>
-    <row r="40" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="26"/>
       <c r="B40" s="15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C40" s="16"/>
       <c r="D40" s="16"/>
       <c r="E40" s="17">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F40" s="17">
-        <f t="shared" ref="F40:O40" si="5">E40</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G40" s="17">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" ref="G40:O40" si="5">F40</f>
+        <v>12</v>
       </c>
       <c r="H40" s="17">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I40" s="17">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J40" s="17">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K40" s="17">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L40" s="17">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M40" s="17">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N40" s="17">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O40" s="17">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="27">
         <v>2</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C41" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
+      <c r="E41" s="19">
+        <v>8</v>
+      </c>
+      <c r="F41" s="19">
+        <v>8</v>
+      </c>
+      <c r="G41" s="19">
+        <v>8</v>
+      </c>
+      <c r="H41" s="19">
+        <v>8</v>
+      </c>
+      <c r="I41" s="19">
+        <v>4</v>
+      </c>
+      <c r="J41" s="19">
+        <v>0</v>
+      </c>
+      <c r="K41" s="19">
+        <v>2</v>
+      </c>
       <c r="L41" s="19"/>
       <c r="M41" s="19"/>
       <c r="N41" s="19"/>
       <c r="O41" s="19"/>
     </row>
-    <row r="42" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="27"/>
       <c r="B42" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C42" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
+      <c r="E42" s="19">
+        <v>5</v>
+      </c>
+      <c r="F42" s="19">
+        <v>5</v>
+      </c>
+      <c r="G42" s="19">
+        <v>5</v>
+      </c>
+      <c r="H42" s="19">
+        <v>5</v>
+      </c>
+      <c r="I42" s="19">
+        <v>3</v>
+      </c>
+      <c r="J42" s="19">
+        <v>0</v>
+      </c>
+      <c r="K42" s="19">
+        <v>2</v>
+      </c>
       <c r="L42" s="19"/>
       <c r="M42" s="19"/>
       <c r="N42" s="19"/>
       <c r="O42" s="19"/>
     </row>
-    <row r="43" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="27"/>
       <c r="B43" s="18"/>
       <c r="C43" s="19"/>
@@ -2741,7 +2781,7 @@
       <c r="N43" s="19"/>
       <c r="O43" s="19"/>
     </row>
-    <row r="44" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="27"/>
       <c r="B44" s="18"/>
       <c r="C44" s="19"/>
@@ -2758,100 +2798,132 @@
       <c r="N44" s="19"/>
       <c r="O44" s="19"/>
     </row>
-    <row r="45" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="27"/>
       <c r="B45" s="15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C45" s="16"/>
       <c r="D45" s="16"/>
       <c r="E45" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F45" s="17">
         <f t="shared" ref="F45:O45" si="6">E45</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G45" s="17">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H45" s="17">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I45" s="17">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J45" s="17">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K45" s="17">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L45" s="17">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M45" s="17">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N45" s="17">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O45" s="17">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="27"/>
       <c r="B46" s="18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C46" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
+      <c r="E46" s="19">
+        <v>4</v>
+      </c>
+      <c r="F46" s="19">
+        <v>4</v>
+      </c>
+      <c r="G46" s="19">
+        <v>4</v>
+      </c>
+      <c r="H46" s="19">
+        <v>4</v>
+      </c>
+      <c r="I46" s="19">
+        <v>4</v>
+      </c>
+      <c r="J46" s="19">
+        <v>4</v>
+      </c>
+      <c r="K46" s="19">
+        <v>1</v>
+      </c>
+      <c r="L46" s="19">
+        <v>0</v>
+      </c>
       <c r="M46" s="19"/>
       <c r="N46" s="19"/>
       <c r="O46" s="19"/>
     </row>
-    <row r="47" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="27"/>
       <c r="B47" s="18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C47" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
+      <c r="E47" s="19">
+        <v>1</v>
+      </c>
+      <c r="F47" s="19">
+        <v>1</v>
+      </c>
+      <c r="G47" s="19">
+        <v>1</v>
+      </c>
+      <c r="H47" s="19">
+        <v>1</v>
+      </c>
+      <c r="I47" s="19">
+        <v>1</v>
+      </c>
+      <c r="J47" s="19">
+        <v>1</v>
+      </c>
+      <c r="K47" s="19">
+        <v>1</v>
+      </c>
+      <c r="L47" s="19">
+        <v>0</v>
+      </c>
       <c r="M47" s="19"/>
       <c r="N47" s="19"/>
       <c r="O47" s="19"/>
     </row>
-    <row r="48" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="27"/>
       <c r="B48" s="18"/>
       <c r="C48" s="19"/>
@@ -2868,7 +2940,7 @@
       <c r="N48" s="19"/>
       <c r="O48" s="19"/>
     </row>
-    <row r="49" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="27"/>
       <c r="B49" s="18"/>
       <c r="C49" s="19"/>
@@ -2885,100 +2957,136 @@
       <c r="N49" s="19"/>
       <c r="O49" s="19"/>
     </row>
-    <row r="50" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="27"/>
       <c r="B50" s="15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C50" s="16"/>
       <c r="D50" s="16"/>
       <c r="E50" s="17">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F50" s="17">
         <f t="shared" ref="F50:O50" si="7">E50</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G50" s="17">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H50" s="17">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I50" s="17">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J50" s="17">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K50" s="17">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L50" s="17">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M50" s="17">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N50" s="17">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="O50" s="17">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="27"/>
       <c r="B51" s="18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C51" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="19"/>
+      <c r="E51" s="19">
+        <v>10</v>
+      </c>
+      <c r="F51" s="19">
+        <v>10</v>
+      </c>
+      <c r="G51" s="19">
+        <v>10</v>
+      </c>
+      <c r="H51" s="19">
+        <v>10</v>
+      </c>
+      <c r="I51" s="19">
+        <v>10</v>
+      </c>
+      <c r="J51" s="19">
+        <v>10</v>
+      </c>
+      <c r="K51" s="19">
+        <v>10</v>
+      </c>
+      <c r="L51" s="19">
+        <v>5</v>
+      </c>
+      <c r="M51" s="19">
+        <v>0</v>
+      </c>
       <c r="N51" s="19"/>
       <c r="O51" s="19"/>
     </row>
-    <row r="52" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="27"/>
       <c r="B52" s="18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C52" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="19"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="19"/>
-      <c r="M52" s="19"/>
+      <c r="E52" s="19">
+        <v>4</v>
+      </c>
+      <c r="F52" s="19">
+        <v>4</v>
+      </c>
+      <c r="G52" s="19">
+        <v>4</v>
+      </c>
+      <c r="H52" s="19">
+        <v>4</v>
+      </c>
+      <c r="I52" s="19">
+        <v>4</v>
+      </c>
+      <c r="J52" s="19">
+        <v>4</v>
+      </c>
+      <c r="K52" s="19">
+        <v>4</v>
+      </c>
+      <c r="L52" s="19">
+        <v>3</v>
+      </c>
+      <c r="M52" s="19">
+        <v>1</v>
+      </c>
       <c r="N52" s="19"/>
       <c r="O52" s="19"/>
     </row>
-    <row r="53" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="27"/>
       <c r="B53" s="18"/>
       <c r="C53" s="19"/>
@@ -2995,7 +3103,7 @@
       <c r="N53" s="19"/>
       <c r="O53" s="19"/>
     </row>
-    <row r="54" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="27"/>
       <c r="B54" s="18"/>
       <c r="C54" s="19"/>
@@ -3012,10 +3120,10 @@
       <c r="N54" s="19"/>
       <c r="O54" s="19"/>
     </row>
-    <row r="55" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="27"/>
       <c r="B55" s="15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C55" s="16"/>
       <c r="D55" s="16"/>
@@ -3063,9 +3171,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B56" s="18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C56" s="19" t="s">
         <v>6</v>
@@ -3083,9 +3191,9 @@
       <c r="N56" s="19"/>
       <c r="O56" s="19"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B57" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C57" s="19" t="s">
         <v>6</v>
@@ -3103,7 +3211,7 @@
       <c r="N57" s="19"/>
       <c r="O57" s="19"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B58" s="18"/>
       <c r="C58" s="19"/>
       <c r="D58" s="19"/>
@@ -3119,7 +3227,7 @@
       <c r="N58" s="19"/>
       <c r="O58" s="19"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B59" s="18"/>
       <c r="C59" s="19"/>
       <c r="D59" s="19"/>
@@ -3135,60 +3243,60 @@
       <c r="N59" s="19"/>
       <c r="O59" s="19"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B60" s="22" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C60" s="22"/>
       <c r="D60" s="22"/>
       <c r="E60" s="22">
         <f t="shared" ref="E60:O60" si="9">SUM(E7:E59)</f>
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="F60" s="22">
         <f t="shared" si="9"/>
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="G60" s="22">
         <f t="shared" si="9"/>
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="H60" s="22">
         <f t="shared" si="9"/>
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="I60" s="22">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="J60" s="22">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="K60" s="22">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="L60" s="22">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="M60" s="22">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="N60" s="22">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="O60" s="22">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B61" s="22" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C61" s="22"/>
       <c r="D61" s="22"/>
@@ -3279,7 +3387,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Suivi.xlsx
+++ b/Suivi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camil\Documents\ENI\Modules\ProjetJEE\ProjetEncheres\ENI-Encheres\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oguzhan\eclipse-workspace\ENI-Encheres\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79C4219-2E97-4C53-9F21-B3633A945FF1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B265BCCF-4B6F-4711-8179-0B61DF00DE30}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13148" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Paramètres" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="65">
   <si>
     <t>Paramètres à renseigner avant d'exploiter l'onglet de suivi</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>Affichage profil autre utilisateur + autre profil</t>
+  </si>
+  <si>
+    <t>Detail vente</t>
   </si>
 </sst>
 </file>
@@ -1486,14 +1489,14 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.33203125" customWidth="1"/>
     <col min="3" max="3" width="34.6640625" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:5" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
@@ -1501,7 +1504,7 @@
       <c r="D1" s="23"/>
       <c r="E1" s="23"/>
     </row>
-    <row r="2" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1509,10 +1512,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1520,56 +1523,56 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="C6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="C8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="C9" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="C11" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="C12" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="C13" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="C14" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="C15" s="11" t="s">
         <v>11</v>
       </c>
@@ -1593,11 +1596,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" topLeftCell="C37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="91.6640625" customWidth="1"/>
     <col min="3" max="3" width="30.5546875" customWidth="1"/>
@@ -1636,7 +1639,7 @@
       <c r="N2" s="12"/>
       <c r="O2" s="12"/>
     </row>
-    <row r="3" spans="1:16" ht="41.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="41.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>12</v>
       </c>
@@ -1688,7 +1691,7 @@
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
     </row>
-    <row r="6" spans="1:16" ht="31.3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
@@ -1735,7 +1738,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="18.2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="15" t="s">
         <v>28</v>
@@ -1926,7 +1929,7 @@
       <c r="N14" s="19"/>
       <c r="O14" s="19"/>
     </row>
-    <row r="15" spans="1:16" ht="18.2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="26">
         <v>1</v>
       </c>
@@ -2108,7 +2111,7 @@
       <c r="N19" s="19"/>
       <c r="O19" s="19"/>
     </row>
-    <row r="20" spans="1:15" ht="18.2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="26"/>
       <c r="B20" s="15" t="s">
         <v>36</v>
@@ -2116,47 +2119,47 @@
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
       <c r="E20" s="17">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F20" s="17">
         <f t="shared" ref="F20:O20" si="1">E20</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G20" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H20" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I20" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J20" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K20" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L20" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M20" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N20" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O20" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -2168,10 +2171,18 @@
         <v>4</v>
       </c>
       <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
+      <c r="E21" s="19">
+        <v>11</v>
+      </c>
+      <c r="F21" s="19">
+        <v>11</v>
+      </c>
+      <c r="G21" s="19">
+        <v>7</v>
+      </c>
+      <c r="H21" s="19">
+        <v>0</v>
+      </c>
       <c r="I21" s="19"/>
       <c r="J21" s="19"/>
       <c r="K21" s="19"/>
@@ -2189,10 +2200,18 @@
         <v>4</v>
       </c>
       <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
+      <c r="E22" s="19">
+        <v>1</v>
+      </c>
+      <c r="F22" s="19">
+        <v>1</v>
+      </c>
+      <c r="G22" s="19">
+        <v>0</v>
+      </c>
+      <c r="H22" s="19">
+        <v>0</v>
+      </c>
       <c r="I22" s="19"/>
       <c r="J22" s="19"/>
       <c r="K22" s="19"/>
@@ -2210,10 +2229,18 @@
         <v>4</v>
       </c>
       <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
+      <c r="E23" s="19">
+        <v>2</v>
+      </c>
+      <c r="F23" s="19">
+        <v>2</v>
+      </c>
+      <c r="G23" s="19">
+        <v>0</v>
+      </c>
+      <c r="H23" s="19">
+        <v>0</v>
+      </c>
       <c r="I23" s="19"/>
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
@@ -2231,10 +2258,18 @@
         <v>4</v>
       </c>
       <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
+      <c r="E24" s="19">
+        <v>1</v>
+      </c>
+      <c r="F24" s="19">
+        <v>1</v>
+      </c>
+      <c r="G24" s="19">
+        <v>0</v>
+      </c>
+      <c r="H24" s="19">
+        <v>0</v>
+      </c>
       <c r="I24" s="19"/>
       <c r="J24" s="19"/>
       <c r="K24" s="19"/>
@@ -3212,15 +3247,31 @@
       <c r="O57" s="19"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B58" s="18"/>
-      <c r="C58" s="19"/>
+      <c r="B58" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
+      <c r="E58" s="19">
+        <v>14</v>
+      </c>
+      <c r="F58" s="19">
+        <v>14</v>
+      </c>
+      <c r="G58" s="19">
+        <v>14</v>
+      </c>
+      <c r="H58" s="19">
+        <v>14</v>
+      </c>
+      <c r="I58" s="19">
+        <v>7</v>
+      </c>
+      <c r="J58" s="19">
+        <v>0</v>
+      </c>
       <c r="K58" s="19"/>
       <c r="L58" s="19"/>
       <c r="M58" s="19"/>
@@ -3251,47 +3302,47 @@
       <c r="D60" s="22"/>
       <c r="E60" s="22">
         <f t="shared" ref="E60:O60" si="9">SUM(E7:E59)</f>
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="F60" s="22">
         <f t="shared" si="9"/>
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="G60" s="22">
         <f t="shared" si="9"/>
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="H60" s="22">
         <f t="shared" si="9"/>
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="I60" s="22">
         <f t="shared" si="9"/>
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="J60" s="22">
         <f t="shared" si="9"/>
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="K60" s="22">
         <f t="shared" si="9"/>
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="L60" s="22">
         <f t="shared" si="9"/>
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="M60" s="22">
         <f t="shared" si="9"/>
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="N60" s="22">
         <f t="shared" si="9"/>
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="O60" s="22">
         <f t="shared" si="9"/>
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
@@ -3387,7 +3438,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Suivi.xlsx
+++ b/Suivi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camil\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oguzhan\eclipse-workspace\ENI-Encheres\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71B9656-C060-49B7-83D9-A76558BA3ED5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFDD028-6335-4967-93E5-D8FADD124AD0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13148" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Paramètres" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
   <si>
     <t>Paramètres à renseigner avant d'exploiter l'onglet de suivi</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>Jeu d'essai, de reset, de tests pour bdd</t>
+  </si>
+  <si>
+    <t>Enchère</t>
   </si>
 </sst>
 </file>
@@ -452,21 +455,6 @@
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -500,6 +488,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1450,91 +1453,91 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.33203125" customWidth="1"/>
     <col min="3" max="3" width="34.6640625" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
-      <c r="C2" s="6" t="s">
+    <row r="1" spans="2:5" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+    </row>
+    <row r="2" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
-      <c r="C4" s="9" t="s">
+    <row r="3" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
-      <c r="C5" s="11" t="s">
+    <row r="5" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="12"/>
-    </row>
-    <row r="6" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
-      <c r="C6" s="11" t="s">
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="C6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="12"/>
-    </row>
-    <row r="7" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
-      <c r="C7" s="11" t="s">
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="12"/>
-    </row>
-    <row r="8" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
-      <c r="C8" s="11" t="s">
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="C8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="13"/>
-    </row>
-    <row r="9" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
-      <c r="C9" s="14" t="s">
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
-      <c r="C11" s="9" t="s">
+    <row r="11" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
-      <c r="C12" s="15" t="s">
+    <row r="12" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="C12" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
-      <c r="C13" s="15" t="s">
+    <row r="13" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="C13" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
-      <c r="C14" s="15" t="s">
+    <row r="14" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="C14" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="18.2" x14ac:dyDescent="0.35">
-      <c r="C15" s="16" t="s">
+    <row r="15" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="C15" s="11" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1557,11 +1560,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="91.6640625" customWidth="1"/>
     <col min="3" max="3" width="30.5546875" customWidth="1"/>
@@ -1569,1803 +1572,1837 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-    </row>
-    <row r="3" spans="1:16" ht="41.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+    </row>
+    <row r="3" spans="1:16" ht="41.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-    </row>
-    <row r="6" spans="1:16" ht="31.3" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+    </row>
+    <row r="6" spans="1:16" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="19" t="s">
+      <c r="N6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="O6" s="19" t="s">
+      <c r="O6" s="14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="18.2" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20" t="s">
+    <row r="7" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22">
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17">
         <v>10</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="17">
         <v>10</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="17">
         <v>7</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="17">
         <v>2</v>
       </c>
-      <c r="I7" s="22">
-        <v>0</v>
-      </c>
-      <c r="J7" s="22">
-        <f t="shared" ref="G7:O7" si="0">I7</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="22">
+      <c r="I7" s="17">
+        <v>0</v>
+      </c>
+      <c r="J7" s="17">
+        <f t="shared" ref="J7:O7" si="0">I7</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L7" s="22">
+      <c r="L7" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M7" s="22">
+      <c r="M7" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N7" s="22">
+      <c r="N7" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O7" s="22">
+      <c r="O7" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>0</v>
-      </c>
-      <c r="B8" s="23" t="s">
+      <c r="A8" s="25">
+        <v>0</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24">
-        <v>0</v>
-      </c>
-      <c r="F8" s="24">
-        <v>0</v>
-      </c>
-      <c r="G8" s="24">
-        <v>0</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19">
+        <v>0</v>
+      </c>
+      <c r="F8" s="19">
+        <v>0</v>
+      </c>
+      <c r="G8" s="19">
+        <v>0</v>
+      </c>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
     </row>
     <row r="9" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="23" t="s">
+      <c r="A9" s="25"/>
+      <c r="B9" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24">
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19">
         <v>3</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="19">
         <v>3</v>
       </c>
-      <c r="G9" s="24">
-        <v>0</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
+      <c r="G9" s="19">
+        <v>0</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
     </row>
     <row r="10" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="25" t="s">
+      <c r="A10" s="25"/>
+      <c r="B10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24">
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19">
         <v>5</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="19">
         <v>5</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="19">
         <v>5</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
     </row>
     <row r="11" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="23" t="s">
+      <c r="A11" s="25"/>
+      <c r="B11" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24">
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19">
         <v>2</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="19">
         <v>2</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="19">
         <v>2</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="19">
         <v>2</v>
       </c>
-      <c r="I11" s="24">
-        <v>0</v>
-      </c>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
+      <c r="I11" s="19">
+        <v>0</v>
+      </c>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
     </row>
     <row r="13" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
     </row>
     <row r="14" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-    </row>
-    <row r="15" spans="1:16" ht="18.2" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
+      <c r="A14" s="25"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+    </row>
+    <row r="15" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="26">
         <v>1</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22">
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17">
         <v>18</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="17">
         <v>14</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="17">
         <v>12</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="17">
         <f>G15</f>
         <v>12</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="17">
         <f>H15</f>
         <v>12</v>
       </c>
-      <c r="J15" s="22">
-        <v>0</v>
-      </c>
-      <c r="K15" s="22">
+      <c r="J15" s="17">
+        <v>0</v>
+      </c>
+      <c r="K15" s="17">
         <v>4</v>
       </c>
-      <c r="L15" s="22">
+      <c r="L15" s="17">
         <v>3</v>
       </c>
-      <c r="M15" s="22">
-        <v>0</v>
-      </c>
-      <c r="N15" s="22">
+      <c r="M15" s="17">
+        <v>0</v>
+      </c>
+      <c r="N15" s="17">
         <f>M15</f>
         <v>0</v>
       </c>
-      <c r="O15" s="22">
+      <c r="O15" s="17">
         <f>N15</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="26" t="s">
+      <c r="A16" s="26"/>
+      <c r="B16" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="19">
         <v>2</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="19">
         <v>2</v>
       </c>
-      <c r="G16" s="24">
-        <v>0</v>
-      </c>
-      <c r="H16" s="24">
-        <v>0</v>
-      </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
+      <c r="G16" s="19">
+        <v>0</v>
+      </c>
+      <c r="H16" s="19">
+        <v>0</v>
+      </c>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="26" t="s">
+      <c r="A17" s="26"/>
+      <c r="B17" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="19">
         <v>3</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="19">
         <v>2</v>
       </c>
-      <c r="G17" s="24">
-        <v>0</v>
-      </c>
-      <c r="H17" s="24">
-        <v>0</v>
-      </c>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
+      <c r="G17" s="19">
+        <v>0</v>
+      </c>
+      <c r="H17" s="19">
+        <v>0</v>
+      </c>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="26" t="s">
+      <c r="A18" s="26"/>
+      <c r="B18" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="19">
         <v>3</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="19">
         <v>3</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="19">
         <v>3</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H18" s="19">
         <v>3</v>
       </c>
-      <c r="I18" s="24">
+      <c r="I18" s="19">
         <v>3</v>
       </c>
-      <c r="J18" s="24">
-        <v>0</v>
-      </c>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
+      <c r="J18" s="19">
+        <v>0</v>
+      </c>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
     </row>
     <row r="19" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="26" t="s">
+      <c r="A19" s="26"/>
+      <c r="B19" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="19">
         <v>3</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="19">
         <v>3</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="19">
         <v>2</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H19" s="19">
         <v>2</v>
       </c>
-      <c r="I19" s="24">
-        <v>0</v>
-      </c>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24">
+      <c r="I19" s="19">
+        <v>0</v>
+      </c>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19">
         <v>4</v>
       </c>
-      <c r="L19" s="24">
+      <c r="L19" s="19">
         <v>3</v>
       </c>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-    </row>
-    <row r="20" spans="1:15" ht="18.2" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
-      <c r="B20" s="20" t="s">
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+    </row>
+    <row r="20" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A20" s="26"/>
+      <c r="B20" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="22">
-        <v>15</v>
-      </c>
-      <c r="F20" s="22">
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17">
+        <v>20</v>
+      </c>
+      <c r="F20" s="17">
         <f t="shared" ref="F20:O20" si="1">E20</f>
-        <v>15</v>
-      </c>
-      <c r="G20" s="22">
+        <v>20</v>
+      </c>
+      <c r="G20" s="17">
         <v>7</v>
       </c>
-      <c r="H20" s="22">
-        <v>0</v>
-      </c>
-      <c r="I20" s="22">
+      <c r="H20" s="17">
+        <v>2</v>
+      </c>
+      <c r="I20" s="17">
+        <v>0</v>
+      </c>
+      <c r="J20" s="17">
+        <v>0</v>
+      </c>
+      <c r="K20" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J20" s="22">
+      <c r="L20" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K20" s="22">
+      <c r="M20" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L20" s="22">
+      <c r="N20" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M20" s="22">
+      <c r="O20" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N20" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="26" t="s">
+      <c r="A21" s="26"/>
+      <c r="B21" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24">
-        <v>11</v>
-      </c>
-      <c r="F21" s="24">
-        <v>11</v>
-      </c>
-      <c r="G21" s="24">
-        <v>7</v>
-      </c>
-      <c r="H21" s="24">
-        <v>0</v>
-      </c>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19">
+        <v>16</v>
+      </c>
+      <c r="F21" s="19">
+        <v>16</v>
+      </c>
+      <c r="G21" s="19">
+        <v>9</v>
+      </c>
+      <c r="H21" s="19">
+        <v>2</v>
+      </c>
+      <c r="I21" s="19">
+        <v>0</v>
+      </c>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
     </row>
     <row r="22" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="26" t="s">
+      <c r="A22" s="26"/>
+      <c r="B22" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24">
+      <c r="D22" s="19"/>
+      <c r="E22" s="19">
         <v>1</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="19">
         <v>1</v>
       </c>
-      <c r="G22" s="24">
-        <v>0</v>
-      </c>
-      <c r="H22" s="24">
-        <v>0</v>
-      </c>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
+      <c r="G22" s="19">
+        <v>0</v>
+      </c>
+      <c r="H22" s="19">
+        <v>0</v>
+      </c>
+      <c r="I22" s="19">
+        <v>0</v>
+      </c>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
     </row>
     <row r="23" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="26" t="s">
+      <c r="A23" s="26"/>
+      <c r="B23" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24">
+      <c r="D23" s="19"/>
+      <c r="E23" s="19">
         <v>2</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="19">
         <v>2</v>
       </c>
-      <c r="G23" s="24">
-        <v>0</v>
-      </c>
-      <c r="H23" s="24">
-        <v>0</v>
-      </c>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
+      <c r="G23" s="19">
+        <v>0</v>
+      </c>
+      <c r="H23" s="19">
+        <v>0</v>
+      </c>
+      <c r="I23" s="19">
+        <v>0</v>
+      </c>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
     </row>
     <row r="24" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="26" t="s">
+      <c r="A24" s="26"/>
+      <c r="B24" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24">
+      <c r="D24" s="19"/>
+      <c r="E24" s="19">
         <v>1</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="19">
         <v>1</v>
       </c>
-      <c r="G24" s="24">
-        <v>0</v>
-      </c>
-      <c r="H24" s="24">
-        <v>0</v>
-      </c>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
+      <c r="G24" s="19">
+        <v>0</v>
+      </c>
+      <c r="H24" s="19">
+        <v>0</v>
+      </c>
+      <c r="I24" s="19">
+        <v>0</v>
+      </c>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
     </row>
     <row r="25" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
-      <c r="B25" s="20" t="s">
+      <c r="A25" s="26"/>
+      <c r="B25" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="22">
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="17">
         <v>14</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F25" s="17">
         <f>E25</f>
         <v>14</v>
       </c>
-      <c r="G25" s="22">
+      <c r="G25" s="17">
         <f>F25</f>
         <v>14</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H25" s="17">
         <f>G25</f>
         <v>14</v>
       </c>
-      <c r="I25" s="22">
+      <c r="I25" s="17">
         <f>H25</f>
         <v>14</v>
       </c>
-      <c r="J25" s="22">
+      <c r="J25" s="17">
         <f>I25</f>
         <v>14</v>
       </c>
-      <c r="K25" s="22">
+      <c r="K25" s="17">
         <v>7</v>
       </c>
-      <c r="L25" s="22">
-        <v>0</v>
-      </c>
-      <c r="M25" s="22">
+      <c r="L25" s="17">
+        <v>0</v>
+      </c>
+      <c r="M25" s="17">
         <f>L25</f>
         <v>0</v>
       </c>
-      <c r="N25" s="22">
+      <c r="N25" s="17">
         <f>M25</f>
         <v>0</v>
       </c>
-      <c r="O25" s="22">
+      <c r="O25" s="17">
         <f>N25</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="23" t="s">
+      <c r="A26" s="26"/>
+      <c r="B26" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24">
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19">
         <v>7</v>
       </c>
-      <c r="L26" s="24">
+      <c r="L26" s="19">
         <v>7</v>
       </c>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
     </row>
     <row r="27" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="23" t="s">
+      <c r="A27" s="26"/>
+      <c r="B27" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
     </row>
     <row r="28" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="23" t="s">
+      <c r="A28" s="26"/>
+      <c r="B28" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
     </row>
     <row r="29" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="23" t="s">
+      <c r="A29" s="26"/>
+      <c r="B29" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
     </row>
     <row r="30" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
-      <c r="B30" s="20" t="s">
+      <c r="A30" s="26"/>
+      <c r="B30" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="22">
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="17">
         <v>1</v>
       </c>
-      <c r="F30" s="22">
+      <c r="F30" s="17">
         <f t="shared" ref="F30:K30" si="2">E30</f>
         <v>1</v>
       </c>
-      <c r="G30" s="22">
+      <c r="G30" s="17">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H30" s="22">
+      <c r="H30" s="17">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I30" s="22">
+      <c r="I30" s="17">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J30" s="22">
+      <c r="J30" s="17">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K30" s="22">
+      <c r="K30" s="17">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L30" s="22">
-        <v>0</v>
-      </c>
-      <c r="M30" s="22">
+      <c r="L30" s="17">
+        <v>0</v>
+      </c>
+      <c r="M30" s="17">
         <f>L30</f>
         <v>0</v>
       </c>
-      <c r="N30" s="22">
+      <c r="N30" s="17">
         <f>M30</f>
         <v>0</v>
       </c>
-      <c r="O30" s="22">
+      <c r="O30" s="17">
         <f>N30</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="23" t="s">
+      <c r="A31" s="26"/>
+      <c r="B31" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24">
+      <c r="D31" s="19"/>
+      <c r="E31" s="19">
         <v>1</v>
       </c>
-      <c r="F31" s="24">
+      <c r="F31" s="19">
         <v>1</v>
       </c>
-      <c r="G31" s="24">
+      <c r="G31" s="19">
         <v>1</v>
       </c>
-      <c r="H31" s="24">
+      <c r="H31" s="19">
         <v>1</v>
       </c>
-      <c r="I31" s="24">
+      <c r="I31" s="19">
         <v>1</v>
       </c>
-      <c r="J31" s="24">
+      <c r="J31" s="19">
         <v>1</v>
       </c>
-      <c r="K31" s="24">
+      <c r="K31" s="19">
         <v>1</v>
       </c>
-      <c r="L31" s="24">
-        <v>0</v>
-      </c>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
+      <c r="L31" s="19">
+        <v>0</v>
+      </c>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
     </row>
     <row r="32" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
     </row>
     <row r="33" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
     </row>
     <row r="34" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
     </row>
     <row r="35" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="2"/>
-      <c r="B35" s="20" t="s">
+      <c r="A35" s="26"/>
+      <c r="B35" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="22">
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="17">
         <v>12</v>
       </c>
-      <c r="F35" s="22">
+      <c r="F35" s="17">
         <f>E35</f>
         <v>12</v>
       </c>
-      <c r="G35" s="22">
+      <c r="G35" s="17">
         <v>5</v>
       </c>
-      <c r="H35" s="22">
-        <v>0</v>
-      </c>
-      <c r="I35" s="22">
+      <c r="H35" s="17">
+        <v>0</v>
+      </c>
+      <c r="I35" s="17">
         <f t="shared" ref="I35:O35" si="3">H35</f>
         <v>0</v>
       </c>
-      <c r="J35" s="22">
+      <c r="J35" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K35" s="22">
+      <c r="K35" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L35" s="22">
+      <c r="L35" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M35" s="22">
+      <c r="M35" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N35" s="22">
+      <c r="N35" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O35" s="22">
+      <c r="O35" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="2"/>
-      <c r="B36" s="23" t="s">
+      <c r="A36" s="26"/>
+      <c r="B36" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24">
+      <c r="D36" s="19"/>
+      <c r="E36" s="19">
         <v>12</v>
       </c>
-      <c r="F36" s="24">
+      <c r="F36" s="19">
         <v>12</v>
       </c>
-      <c r="G36" s="24">
+      <c r="G36" s="19">
         <v>5</v>
       </c>
-      <c r="H36" s="24">
-        <v>0</v>
-      </c>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="24"/>
-      <c r="O36" s="24"/>
+      <c r="H36" s="19">
+        <v>0</v>
+      </c>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
     </row>
     <row r="37" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="24"/>
-      <c r="O37" s="24"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
     </row>
     <row r="38" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="24"/>
-      <c r="O38" s="24"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
     </row>
     <row r="39" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="24"/>
+      <c r="A39" s="26"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
     </row>
     <row r="40" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="2"/>
-      <c r="B40" s="20" t="s">
+      <c r="A40" s="26"/>
+      <c r="B40" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="22">
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="17">
         <v>12</v>
       </c>
-      <c r="F40" s="22">
+      <c r="F40" s="17">
         <v>12</v>
       </c>
-      <c r="G40" s="22">
+      <c r="G40" s="17">
         <f>F40</f>
         <v>12</v>
       </c>
-      <c r="H40" s="22">
+      <c r="H40" s="17">
         <f>G40</f>
         <v>12</v>
       </c>
-      <c r="I40" s="22">
+      <c r="I40" s="17">
         <v>7</v>
       </c>
-      <c r="J40" s="22">
+      <c r="J40" s="17">
         <v>3</v>
       </c>
-      <c r="K40" s="22">
+      <c r="K40" s="17">
         <v>4</v>
       </c>
-      <c r="L40" s="22">
-        <v>0</v>
-      </c>
-      <c r="M40" s="22">
+      <c r="L40" s="17">
+        <v>0</v>
+      </c>
+      <c r="M40" s="17">
         <f>L40</f>
         <v>0</v>
       </c>
-      <c r="N40" s="22">
+      <c r="N40" s="17">
         <f>M40</f>
         <v>0</v>
       </c>
-      <c r="O40" s="22">
+      <c r="O40" s="17">
         <f>N40</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+      <c r="A41" s="27">
         <v>2</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C41" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24">
+      <c r="D41" s="19"/>
+      <c r="E41" s="19">
         <v>8</v>
       </c>
-      <c r="F41" s="24">
+      <c r="F41" s="19">
         <v>8</v>
       </c>
-      <c r="G41" s="24">
+      <c r="G41" s="19">
         <v>8</v>
       </c>
-      <c r="H41" s="24">
+      <c r="H41" s="19">
         <v>8</v>
       </c>
-      <c r="I41" s="24">
+      <c r="I41" s="19">
         <v>4</v>
       </c>
-      <c r="J41" s="24">
-        <v>0</v>
-      </c>
-      <c r="K41" s="24">
+      <c r="J41" s="19">
+        <v>0</v>
+      </c>
+      <c r="K41" s="19">
         <v>2</v>
       </c>
-      <c r="L41" s="24"/>
-      <c r="M41" s="24"/>
-      <c r="N41" s="24"/>
-      <c r="O41" s="24"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
     </row>
     <row r="42" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="23" t="s">
+      <c r="A42" s="27"/>
+      <c r="B42" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24">
+      <c r="D42" s="19"/>
+      <c r="E42" s="19">
         <v>5</v>
       </c>
-      <c r="F42" s="24">
+      <c r="F42" s="19">
         <v>5</v>
       </c>
-      <c r="G42" s="24">
+      <c r="G42" s="19">
         <v>5</v>
       </c>
-      <c r="H42" s="24">
+      <c r="H42" s="19">
         <v>5</v>
       </c>
-      <c r="I42" s="24">
+      <c r="I42" s="19">
         <v>3</v>
       </c>
-      <c r="J42" s="24">
-        <v>0</v>
-      </c>
-      <c r="K42" s="24">
+      <c r="J42" s="19">
+        <v>0</v>
+      </c>
+      <c r="K42" s="19">
         <v>2</v>
       </c>
-      <c r="L42" s="24"/>
-      <c r="M42" s="24"/>
-      <c r="N42" s="24"/>
-      <c r="O42" s="24"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
     </row>
     <row r="43" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="24"/>
-      <c r="M43" s="24"/>
-      <c r="N43" s="24"/>
-      <c r="O43" s="24"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
     </row>
     <row r="44" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="24"/>
-      <c r="M44" s="24"/>
-      <c r="N44" s="24"/>
-      <c r="O44" s="24"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
     </row>
     <row r="45" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="1"/>
-      <c r="B45" s="20" t="s">
+      <c r="A45" s="27"/>
+      <c r="B45" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="22">
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="17">
         <v>5</v>
       </c>
-      <c r="F45" s="22">
+      <c r="F45" s="17">
         <f t="shared" ref="F45:O45" si="4">E45</f>
         <v>5</v>
       </c>
-      <c r="G45" s="22">
+      <c r="G45" s="17">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="H45" s="22">
+      <c r="H45" s="17">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="I45" s="22">
+      <c r="I45" s="17">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J45" s="22">
+      <c r="J45" s="17">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="K45" s="22">
+      <c r="K45" s="17">
         <v>2</v>
       </c>
-      <c r="L45" s="22">
-        <v>0</v>
-      </c>
-      <c r="M45" s="22">
+      <c r="L45" s="17">
+        <v>0</v>
+      </c>
+      <c r="M45" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N45" s="22">
+      <c r="N45" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O45" s="22">
+      <c r="O45" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-      <c r="B46" s="23" t="s">
+      <c r="A46" s="27"/>
+      <c r="B46" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="C46" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24">
+      <c r="D46" s="19"/>
+      <c r="E46" s="19">
         <v>4</v>
       </c>
-      <c r="F46" s="24">
+      <c r="F46" s="19">
         <v>4</v>
       </c>
-      <c r="G46" s="24">
+      <c r="G46" s="19">
         <v>4</v>
       </c>
-      <c r="H46" s="24">
+      <c r="H46" s="19">
         <v>4</v>
       </c>
-      <c r="I46" s="24">
+      <c r="I46" s="19">
         <v>4</v>
       </c>
-      <c r="J46" s="24">
+      <c r="J46" s="19">
         <v>4</v>
       </c>
-      <c r="K46" s="24">
+      <c r="K46" s="19">
         <v>1</v>
       </c>
-      <c r="L46" s="24">
-        <v>0</v>
-      </c>
-      <c r="M46" s="24"/>
-      <c r="N46" s="24"/>
-      <c r="O46" s="24"/>
+      <c r="L46" s="19">
+        <v>0</v>
+      </c>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
     </row>
     <row r="47" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-      <c r="B47" s="23" t="s">
+      <c r="A47" s="27"/>
+      <c r="B47" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="24" t="s">
+      <c r="C47" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24">
+      <c r="D47" s="19"/>
+      <c r="E47" s="19">
         <v>1</v>
       </c>
-      <c r="F47" s="24">
+      <c r="F47" s="19">
         <v>1</v>
       </c>
-      <c r="G47" s="24">
+      <c r="G47" s="19">
         <v>1</v>
       </c>
-      <c r="H47" s="24">
+      <c r="H47" s="19">
         <v>1</v>
       </c>
-      <c r="I47" s="24">
+      <c r="I47" s="19">
         <v>1</v>
       </c>
-      <c r="J47" s="24">
+      <c r="J47" s="19">
         <v>1</v>
       </c>
-      <c r="K47" s="24">
+      <c r="K47" s="19">
         <v>1</v>
       </c>
-      <c r="L47" s="24">
-        <v>0</v>
-      </c>
-      <c r="M47" s="24"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="24"/>
+      <c r="L47" s="19">
+        <v>0</v>
+      </c>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
     </row>
     <row r="48" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="24"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="24"/>
-      <c r="M48" s="24"/>
-      <c r="N48" s="24"/>
-      <c r="O48" s="24"/>
+      <c r="A48" s="27"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
     </row>
     <row r="49" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="24"/>
-      <c r="K49" s="24"/>
-      <c r="L49" s="24"/>
-      <c r="M49" s="24"/>
-      <c r="N49" s="24"/>
-      <c r="O49" s="24"/>
+      <c r="A49" s="27"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
     </row>
     <row r="50" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="1"/>
-      <c r="B50" s="20" t="s">
+      <c r="A50" s="27"/>
+      <c r="B50" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="22">
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="17">
         <v>14</v>
       </c>
-      <c r="F50" s="22">
+      <c r="F50" s="17">
         <f t="shared" ref="F50:O50" si="5">E50</f>
         <v>14</v>
       </c>
-      <c r="G50" s="22">
+      <c r="G50" s="17">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="H50" s="22">
+      <c r="H50" s="17">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="I50" s="22">
+      <c r="I50" s="17">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="J50" s="22">
+      <c r="J50" s="17">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="K50" s="22">
+      <c r="K50" s="17">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="L50" s="22">
+      <c r="L50" s="17">
         <v>8</v>
       </c>
-      <c r="M50" s="22">
+      <c r="M50" s="17">
         <v>1</v>
       </c>
-      <c r="N50" s="22">
-        <v>0</v>
-      </c>
-      <c r="O50" s="22">
+      <c r="N50" s="17">
+        <v>0</v>
+      </c>
+      <c r="O50" s="17">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
-      <c r="B51" s="23" t="s">
+      <c r="A51" s="27"/>
+      <c r="B51" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24">
+      <c r="D51" s="19"/>
+      <c r="E51" s="19">
         <v>10</v>
       </c>
-      <c r="F51" s="24">
+      <c r="F51" s="19">
         <v>10</v>
       </c>
-      <c r="G51" s="24">
+      <c r="G51" s="19">
         <v>10</v>
       </c>
-      <c r="H51" s="24">
+      <c r="H51" s="19">
         <v>10</v>
       </c>
-      <c r="I51" s="24">
+      <c r="I51" s="19">
         <v>10</v>
       </c>
-      <c r="J51" s="24">
+      <c r="J51" s="19">
         <v>10</v>
       </c>
-      <c r="K51" s="24">
+      <c r="K51" s="19">
         <v>10</v>
       </c>
-      <c r="L51" s="24">
+      <c r="L51" s="19">
         <v>5</v>
       </c>
-      <c r="M51" s="24">
-        <v>0</v>
-      </c>
-      <c r="N51" s="24"/>
-      <c r="O51" s="24"/>
+      <c r="M51" s="19">
+        <v>0</v>
+      </c>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
     </row>
     <row r="52" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
-      <c r="B52" s="23" t="s">
+      <c r="A52" s="27"/>
+      <c r="B52" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24">
+      <c r="D52" s="19"/>
+      <c r="E52" s="19">
         <v>4</v>
       </c>
-      <c r="F52" s="24">
+      <c r="F52" s="19">
         <v>4</v>
       </c>
-      <c r="G52" s="24">
+      <c r="G52" s="19">
         <v>4</v>
       </c>
-      <c r="H52" s="24">
+      <c r="H52" s="19">
         <v>4</v>
       </c>
-      <c r="I52" s="24">
+      <c r="I52" s="19">
         <v>4</v>
       </c>
-      <c r="J52" s="24">
+      <c r="J52" s="19">
         <v>4</v>
       </c>
-      <c r="K52" s="24">
+      <c r="K52" s="19">
         <v>4</v>
       </c>
-      <c r="L52" s="24">
+      <c r="L52" s="19">
         <v>3</v>
       </c>
-      <c r="M52" s="24">
+      <c r="M52" s="19">
         <v>1</v>
       </c>
-      <c r="N52" s="24">
-        <v>0</v>
-      </c>
-      <c r="O52" s="24"/>
+      <c r="N52" s="19">
+        <v>0</v>
+      </c>
+      <c r="O52" s="19"/>
     </row>
     <row r="53" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="24"/>
-      <c r="K53" s="24"/>
-      <c r="L53" s="24"/>
-      <c r="M53" s="24"/>
-      <c r="N53" s="24"/>
-      <c r="O53" s="24"/>
+      <c r="A53" s="27"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
     </row>
     <row r="54" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="24"/>
-      <c r="K54" s="24"/>
-      <c r="L54" s="24"/>
-      <c r="M54" s="24"/>
-      <c r="N54" s="24"/>
-      <c r="O54" s="24"/>
+      <c r="A54" s="27"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
     </row>
     <row r="55" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="1"/>
-      <c r="B55" s="20" t="s">
+      <c r="A55" s="27"/>
+      <c r="B55" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="22">
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="17">
+        <v>33</v>
+      </c>
+      <c r="F55" s="17">
+        <f t="shared" ref="F55:L55" si="6">E55</f>
+        <v>33</v>
+      </c>
+      <c r="G55" s="17">
+        <f t="shared" si="6"/>
+        <v>33</v>
+      </c>
+      <c r="H55" s="17">
+        <f t="shared" si="6"/>
+        <v>33</v>
+      </c>
+      <c r="I55" s="17">
+        <v>33</v>
+      </c>
+      <c r="J55" s="17">
+        <v>26</v>
+      </c>
+      <c r="K55" s="17">
         <v>19</v>
       </c>
-      <c r="F55" s="22">
-        <f t="shared" ref="F55:O55" si="6">E55</f>
-        <v>19</v>
-      </c>
-      <c r="G55" s="22">
-        <f t="shared" si="6"/>
-        <v>19</v>
-      </c>
-      <c r="H55" s="22">
-        <f t="shared" si="6"/>
-        <v>19</v>
-      </c>
-      <c r="I55" s="22">
+      <c r="L55" s="17">
         <v>12</v>
       </c>
-      <c r="J55" s="22">
+      <c r="M55" s="17">
+        <v>4</v>
+      </c>
+      <c r="N55" s="17">
+        <v>1</v>
+      </c>
+      <c r="O55" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="19"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19">
+        <v>14</v>
+      </c>
+      <c r="F57" s="19">
+        <v>14</v>
+      </c>
+      <c r="G57" s="19">
+        <v>14</v>
+      </c>
+      <c r="H57" s="19">
+        <v>14</v>
+      </c>
+      <c r="I57" s="19">
+        <v>14</v>
+      </c>
+      <c r="J57" s="19">
+        <v>14</v>
+      </c>
+      <c r="K57" s="19">
+        <v>14</v>
+      </c>
+      <c r="L57" s="19">
+        <v>7</v>
+      </c>
+      <c r="M57" s="19">
+        <v>0</v>
+      </c>
+      <c r="N57" s="19"/>
+      <c r="O57" s="19"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B58" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19">
+        <v>14</v>
+      </c>
+      <c r="F58" s="19">
+        <v>14</v>
+      </c>
+      <c r="G58" s="19">
+        <v>14</v>
+      </c>
+      <c r="H58" s="19">
+        <v>14</v>
+      </c>
+      <c r="I58" s="19">
+        <v>14</v>
+      </c>
+      <c r="J58" s="19">
+        <v>7</v>
+      </c>
+      <c r="K58" s="19">
+        <v>0</v>
+      </c>
+      <c r="L58" s="19">
+        <v>0</v>
+      </c>
+      <c r="M58" s="19">
+        <v>0</v>
+      </c>
+      <c r="N58" s="19"/>
+      <c r="O58" s="19"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B59" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19">
         <v>5</v>
       </c>
-      <c r="K55" s="22">
-        <f t="shared" si="6"/>
+      <c r="F59" s="19">
         <v>5</v>
       </c>
-      <c r="L55" s="22">
-        <f t="shared" si="6"/>
+      <c r="G59" s="19">
         <v>5</v>
       </c>
-      <c r="M55" s="22">
+      <c r="H59" s="19">
+        <v>5</v>
+      </c>
+      <c r="I59" s="19">
+        <v>5</v>
+      </c>
+      <c r="J59" s="19">
+        <v>5</v>
+      </c>
+      <c r="K59" s="19">
+        <v>5</v>
+      </c>
+      <c r="L59" s="19">
+        <v>5</v>
+      </c>
+      <c r="M59" s="19">
         <v>4</v>
       </c>
-      <c r="N55" s="22">
+      <c r="N59" s="19">
         <v>1</v>
       </c>
-      <c r="O55" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="24"/>
-      <c r="J56" s="24"/>
-      <c r="K56" s="24"/>
-      <c r="L56" s="24"/>
-      <c r="M56" s="24"/>
-      <c r="N56" s="24"/>
-      <c r="O56" s="24"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="24"/>
-      <c r="K57" s="24"/>
-      <c r="L57" s="24"/>
-      <c r="M57" s="24"/>
-      <c r="N57" s="24"/>
-      <c r="O57" s="24"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B58" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C58" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24">
-        <v>14</v>
-      </c>
-      <c r="F58" s="24">
-        <v>14</v>
-      </c>
-      <c r="G58" s="24">
-        <v>14</v>
-      </c>
-      <c r="H58" s="24">
-        <v>14</v>
-      </c>
-      <c r="I58" s="24">
-        <v>7</v>
-      </c>
-      <c r="J58" s="24">
-        <v>0</v>
-      </c>
-      <c r="K58" s="24"/>
-      <c r="L58" s="24"/>
-      <c r="M58" s="24"/>
-      <c r="N58" s="24"/>
-      <c r="O58" s="24"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B59" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C59" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24">
-        <v>5</v>
-      </c>
-      <c r="F59" s="24">
-        <v>5</v>
-      </c>
-      <c r="G59" s="24">
-        <v>5</v>
-      </c>
-      <c r="H59" s="24">
-        <v>5</v>
-      </c>
-      <c r="I59" s="24">
-        <v>5</v>
-      </c>
-      <c r="J59" s="24">
-        <v>5</v>
-      </c>
-      <c r="K59" s="24">
-        <v>5</v>
-      </c>
-      <c r="L59" s="24">
-        <v>5</v>
-      </c>
-      <c r="M59" s="24">
-        <v>4</v>
-      </c>
-      <c r="N59" s="24">
-        <v>1</v>
-      </c>
-      <c r="O59" s="24">
+      <c r="O59" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B60" s="27" t="s">
+      <c r="B60" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27">
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22">
         <f t="shared" ref="E60:O60" si="7">SUM(E7:E59)</f>
-        <v>220</v>
-      </c>
-      <c r="F60" s="27">
+        <v>258</v>
+      </c>
+      <c r="F60" s="22">
         <f t="shared" si="7"/>
-        <v>215</v>
-      </c>
-      <c r="G60" s="27">
+        <v>253</v>
+      </c>
+      <c r="G60" s="22">
         <f t="shared" si="7"/>
-        <v>172</v>
-      </c>
-      <c r="H60" s="27">
+        <v>202</v>
+      </c>
+      <c r="H60" s="22">
         <f t="shared" si="7"/>
-        <v>138</v>
-      </c>
-      <c r="I60" s="27">
+        <v>170</v>
+      </c>
+      <c r="I60" s="22">
         <f t="shared" si="7"/>
-        <v>107</v>
-      </c>
-      <c r="J60" s="27">
+        <v>149</v>
+      </c>
+      <c r="J60" s="22">
         <f t="shared" si="7"/>
-        <v>67</v>
-      </c>
-      <c r="K60" s="27">
+        <v>109</v>
+      </c>
+      <c r="K60" s="22">
         <f t="shared" si="7"/>
-        <v>74</v>
-      </c>
-      <c r="L60" s="27">
+        <v>102</v>
+      </c>
+      <c r="L60" s="22">
         <f t="shared" si="7"/>
-        <v>39</v>
-      </c>
-      <c r="M60" s="27">
+        <v>53</v>
+      </c>
+      <c r="M60" s="22">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="N60" s="27">
+      <c r="N60" s="22">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="O60" s="27">
+      <c r="O60" s="22">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B61" s="27" t="s">
+      <c r="B61" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27">
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22">
         <f>Paramètres!D2*Paramètres!D4*COLUMNS(F6:O6)</f>
         <v>280</v>
       </c>
-      <c r="F61" s="27">
+      <c r="F61" s="22">
         <f>E61-(Paramètres!$D2*Paramètres!$D4)</f>
         <v>252</v>
       </c>
-      <c r="G61" s="27">
+      <c r="G61" s="22">
         <f>F61-(Paramètres!$D2*Paramètres!$D4)</f>
         <v>224</v>
       </c>
-      <c r="H61" s="27">
+      <c r="H61" s="22">
         <f>G61-(Paramètres!$D2*Paramètres!$D4)</f>
         <v>196</v>
       </c>
-      <c r="I61" s="27">
+      <c r="I61" s="22">
         <f>H61-(Paramètres!$D2*Paramètres!$D4)</f>
         <v>168</v>
       </c>
-      <c r="J61" s="27">
+      <c r="J61" s="22">
         <f>I61-(Paramètres!$D2*Paramètres!$D4)</f>
         <v>140</v>
       </c>
-      <c r="K61" s="27">
+      <c r="K61" s="22">
         <f>J61-(Paramètres!$D2*Paramètres!$D4)</f>
         <v>112</v>
       </c>
-      <c r="L61" s="27">
+      <c r="L61" s="22">
         <f>K61-(Paramètres!$D2*Paramètres!$D4)</f>
         <v>84</v>
       </c>
-      <c r="M61" s="27">
+      <c r="M61" s="22">
         <f>L61-(Paramètres!$D2*Paramètres!$D4)</f>
         <v>56</v>
       </c>
-      <c r="N61" s="27">
+      <c r="N61" s="22">
         <f>M61-(Paramètres!$D2*Paramètres!$D4)</f>
         <v>28</v>
       </c>
-      <c r="O61" s="27">
+      <c r="O61" s="22">
         <f>N61-(Paramètres!$D2*Paramètres!$D4)</f>
         <v>0</v>
       </c>
@@ -3398,7 +3435,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>C7:C55 C58:C59</xm:sqref>
+          <xm:sqref>C7:C55 C57:C59</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3412,7 +3449,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Suivi.xlsx
+++ b/Suivi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oguzhan\eclipse-workspace\ENI-Encheres\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy\git\ENI-Encheres\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFDD028-6335-4967-93E5-D8FADD124AD0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D603FA3E-AD51-4C15-8FF6-D6A7D90BBEE6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Paramètres" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="72">
   <si>
     <t>Paramètres à renseigner avant d'exploiter l'onglet de suivi</t>
   </si>
@@ -245,6 +245,21 @@
   </si>
   <si>
     <t>Enchère</t>
+  </si>
+  <si>
+    <t>2004 Lister les encheres en mode connecté</t>
+  </si>
+  <si>
+    <t>Lister Terminés/En cours</t>
+  </si>
+  <si>
+    <t>Lister Achats/Ventes</t>
+  </si>
+  <si>
+    <t>Filtre Categorie</t>
+  </si>
+  <si>
+    <t>Filtre des encheres par nom</t>
   </si>
 </sst>
 </file>
@@ -330,7 +345,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -449,11 +464,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -503,6 +527,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1453,14 +1482,14 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
-    <col min="3" max="3" width="34.6640625" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:5" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
@@ -1468,7 +1497,7 @@
       <c r="D1" s="23"/>
       <c r="E1" s="23"/>
     </row>
-    <row r="2" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1476,10 +1505,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1487,56 +1516,56 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C12" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C13" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C14" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C15" s="11" t="s">
         <v>12</v>
       </c>
@@ -1558,20 +1587,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P61"/>
+  <dimension ref="A1:P66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="91.6640625" customWidth="1"/>
-    <col min="3" max="3" width="30.5546875" customWidth="1"/>
-    <col min="5" max="5" width="36.6640625" customWidth="1"/>
+    <col min="2" max="2" width="91.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
@@ -1587,7 +1616,7 @@
       <c r="N1" s="12"/>
       <c r="O1" s="12"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -1603,7 +1632,7 @@
       <c r="N2" s="12"/>
       <c r="O2" s="12"/>
     </row>
-    <row r="3" spans="1:16" ht="41.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="41.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>13</v>
       </c>
@@ -1623,7 +1652,7 @@
       <c r="O3" s="24"/>
       <c r="P3" s="24"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -1639,7 +1668,7 @@
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -1655,7 +1684,7 @@
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
     </row>
-    <row r="6" spans="1:16" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>14</v>
       </c>
@@ -1702,7 +1731,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="15" t="s">
         <v>29</v>
@@ -1749,7 +1778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>0</v>
       </c>
@@ -1776,7 +1805,7 @@
       <c r="N8" s="19"/>
       <c r="O8" s="19"/>
     </row>
-    <row r="9" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="18" t="s">
         <v>31</v>
@@ -1801,7 +1830,7 @@
       <c r="N9" s="19"/>
       <c r="O9" s="19"/>
     </row>
-    <row r="10" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
       <c r="B10" s="20" t="s">
         <v>32</v>
@@ -1826,7 +1855,7 @@
       <c r="N10" s="19"/>
       <c r="O10" s="19"/>
     </row>
-    <row r="11" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
       <c r="B11" s="18" t="s">
         <v>65</v>
@@ -1855,7 +1884,7 @@
       <c r="N11" s="19"/>
       <c r="O11" s="19"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="25"/>
       <c r="B12" s="21"/>
       <c r="C12" s="19"/>
@@ -1872,7 +1901,7 @@
       <c r="N12" s="19"/>
       <c r="O12" s="19"/>
     </row>
-    <row r="13" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
       <c r="B13" s="21"/>
       <c r="C13" s="19"/>
@@ -1889,7 +1918,7 @@
       <c r="N13" s="19"/>
       <c r="O13" s="19"/>
     </row>
-    <row r="14" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
       <c r="B14" s="21"/>
       <c r="C14" s="19"/>
@@ -1906,7 +1935,7 @@
       <c r="N14" s="19"/>
       <c r="O14" s="19"/>
     </row>
-    <row r="15" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="26">
         <v>1</v>
       </c>
@@ -1953,7 +1982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
       <c r="B16" s="21" t="s">
         <v>34</v>
@@ -1984,7 +2013,7 @@
       <c r="N16" s="19"/>
       <c r="O16" s="19"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
       <c r="B17" s="21" t="s">
         <v>35</v>
@@ -2015,7 +2044,7 @@
       <c r="N17" s="19"/>
       <c r="O17" s="19"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
       <c r="B18" s="21" t="s">
         <v>36</v>
@@ -2050,7 +2079,7 @@
       <c r="N18" s="19"/>
       <c r="O18" s="19"/>
     </row>
-    <row r="19" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
       <c r="B19" s="21" t="s">
         <v>37</v>
@@ -2087,7 +2116,7 @@
       <c r="N19" s="19"/>
       <c r="O19" s="19"/>
     </row>
-    <row r="20" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="26"/>
       <c r="B20" s="15" t="s">
         <v>38</v>
@@ -2134,7 +2163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
       <c r="B21" s="21" t="s">
         <v>39</v>
@@ -2165,7 +2194,7 @@
       <c r="N21" s="19"/>
       <c r="O21" s="19"/>
     </row>
-    <row r="22" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="21" t="s">
         <v>40</v>
@@ -2196,7 +2225,7 @@
       <c r="N22" s="19"/>
       <c r="O22" s="19"/>
     </row>
-    <row r="23" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
       <c r="B23" s="21" t="s">
         <v>41</v>
@@ -2227,7 +2256,7 @@
       <c r="N23" s="19"/>
       <c r="O23" s="19"/>
     </row>
-    <row r="24" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
       <c r="B24" s="21" t="s">
         <v>42</v>
@@ -2258,7 +2287,7 @@
       <c r="N24" s="19"/>
       <c r="O24" s="19"/>
     </row>
-    <row r="25" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="26"/>
       <c r="B25" s="15" t="s">
         <v>43</v>
@@ -2307,7 +2336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="26"/>
       <c r="B26" s="18" t="s">
         <v>44</v>
@@ -2332,7 +2361,7 @@
       <c r="N26" s="19"/>
       <c r="O26" s="19"/>
     </row>
-    <row r="27" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
       <c r="B27" s="18" t="s">
         <v>45</v>
@@ -2353,12 +2382,14 @@
       <c r="N27" s="19"/>
       <c r="O27" s="19"/>
     </row>
-    <row r="28" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="26"/>
       <c r="B28" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="19"/>
+      <c r="C28" s="19" t="s">
+        <v>6</v>
+      </c>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
@@ -2372,12 +2403,14 @@
       <c r="N28" s="19"/>
       <c r="O28" s="19"/>
     </row>
-    <row r="29" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="19"/>
+      <c r="C29" s="19" t="s">
+        <v>6</v>
+      </c>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
@@ -2391,7 +2424,7 @@
       <c r="N29" s="19"/>
       <c r="O29" s="19"/>
     </row>
-    <row r="30" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="26"/>
       <c r="B30" s="15" t="s">
         <v>48</v>
@@ -2441,7 +2474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="26"/>
       <c r="B31" s="18" t="s">
         <v>49</v>
@@ -2478,7 +2511,7 @@
       <c r="N31" s="19"/>
       <c r="O31" s="19"/>
     </row>
-    <row r="32" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="26"/>
       <c r="B32" s="18"/>
       <c r="C32" s="19"/>
@@ -2495,7 +2528,7 @@
       <c r="N32" s="19"/>
       <c r="O32" s="19"/>
     </row>
-    <row r="33" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="26"/>
       <c r="B33" s="18"/>
       <c r="C33" s="19"/>
@@ -2512,7 +2545,7 @@
       <c r="N33" s="19"/>
       <c r="O33" s="19"/>
     </row>
-    <row r="34" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="26"/>
       <c r="B34" s="18"/>
       <c r="C34" s="19"/>
@@ -2529,7 +2562,7 @@
       <c r="N34" s="19"/>
       <c r="O34" s="19"/>
     </row>
-    <row r="35" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="26"/>
       <c r="B35" s="15" t="s">
         <v>50</v>
@@ -2578,7 +2611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="26"/>
       <c r="B36" s="18" t="s">
         <v>51</v>
@@ -2607,7 +2640,7 @@
       <c r="N36" s="19"/>
       <c r="O36" s="19"/>
     </row>
-    <row r="37" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="26"/>
       <c r="B37" s="18"/>
       <c r="C37" s="19"/>
@@ -2624,7 +2657,7 @@
       <c r="N37" s="19"/>
       <c r="O37" s="19"/>
     </row>
-    <row r="38" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="26"/>
       <c r="B38" s="18"/>
       <c r="C38" s="19"/>
@@ -2641,7 +2674,7 @@
       <c r="N38" s="19"/>
       <c r="O38" s="19"/>
     </row>
-    <row r="39" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="26"/>
       <c r="B39" s="18"/>
       <c r="C39" s="19"/>
@@ -2658,7 +2691,7 @@
       <c r="N39" s="19"/>
       <c r="O39" s="19"/>
     </row>
-    <row r="40" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="26"/>
       <c r="B40" s="15" t="s">
         <v>52</v>
@@ -2704,7 +2737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="27">
         <v>2</v>
       </c>
@@ -2741,7 +2774,7 @@
       <c r="N41" s="19"/>
       <c r="O41" s="19"/>
     </row>
-    <row r="42" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="27"/>
       <c r="B42" s="18" t="s">
         <v>41</v>
@@ -2776,7 +2809,7 @@
       <c r="N42" s="19"/>
       <c r="O42" s="19"/>
     </row>
-    <row r="43" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="27"/>
       <c r="B43" s="18"/>
       <c r="C43" s="19"/>
@@ -2793,7 +2826,7 @@
       <c r="N43" s="19"/>
       <c r="O43" s="19"/>
     </row>
-    <row r="44" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="27"/>
       <c r="B44" s="18"/>
       <c r="C44" s="19"/>
@@ -2810,7 +2843,7 @@
       <c r="N44" s="19"/>
       <c r="O44" s="19"/>
     </row>
-    <row r="45" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="27"/>
       <c r="B45" s="15" t="s">
         <v>54</v>
@@ -2859,7 +2892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="27"/>
       <c r="B46" s="18" t="s">
         <v>55</v>
@@ -2896,7 +2929,7 @@
       <c r="N46" s="19"/>
       <c r="O46" s="19"/>
     </row>
-    <row r="47" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="27"/>
       <c r="B47" s="18" t="s">
         <v>56</v>
@@ -2933,7 +2966,7 @@
       <c r="N47" s="19"/>
       <c r="O47" s="19"/>
     </row>
-    <row r="48" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="27"/>
       <c r="B48" s="18"/>
       <c r="C48" s="19"/>
@@ -2950,7 +2983,7 @@
       <c r="N48" s="19"/>
       <c r="O48" s="19"/>
     </row>
-    <row r="49" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="27"/>
       <c r="B49" s="18"/>
       <c r="C49" s="19"/>
@@ -2967,7 +3000,7 @@
       <c r="N49" s="19"/>
       <c r="O49" s="19"/>
     </row>
-    <row r="50" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="27"/>
       <c r="B50" s="15" t="s">
         <v>57</v>
@@ -3015,7 +3048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="27"/>
       <c r="B51" s="18" t="s">
         <v>58</v>
@@ -3054,7 +3087,7 @@
       <c r="N51" s="19"/>
       <c r="O51" s="19"/>
     </row>
-    <row r="52" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="27"/>
       <c r="B52" s="18" t="s">
         <v>59</v>
@@ -3095,7 +3128,7 @@
       </c>
       <c r="O52" s="19"/>
     </row>
-    <row r="53" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="27"/>
       <c r="B53" s="18"/>
       <c r="C53" s="19"/>
@@ -3112,7 +3145,7 @@
       <c r="N53" s="19"/>
       <c r="O53" s="19"/>
     </row>
-    <row r="54" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="27"/>
       <c r="B54" s="18"/>
       <c r="C54" s="19"/>
@@ -3129,7 +3162,7 @@
       <c r="N54" s="19"/>
       <c r="O54" s="19"/>
     </row>
-    <row r="55" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="27"/>
       <c r="B55" s="15" t="s">
         <v>60</v>
@@ -3140,7 +3173,7 @@
         <v>33</v>
       </c>
       <c r="F55" s="17">
-        <f t="shared" ref="F55:L55" si="6">E55</f>
+        <f t="shared" ref="F55:H55" si="6">E55</f>
         <v>33</v>
       </c>
       <c r="G55" s="17">
@@ -3173,7 +3206,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B56" s="28" t="s">
+        <v>71</v>
+      </c>
       <c r="D56" s="19"/>
       <c r="E56" s="19"/>
       <c r="F56" s="19"/>
@@ -3182,12 +3218,16 @@
       <c r="I56" s="19"/>
       <c r="J56" s="19"/>
       <c r="K56" s="19"/>
-      <c r="L56" s="19"/>
-      <c r="M56" s="19"/>
+      <c r="L56" s="19">
+        <v>7</v>
+      </c>
+      <c r="M56" s="19">
+        <v>0</v>
+      </c>
       <c r="N56" s="19"/>
       <c r="O56" s="19"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>66</v>
       </c>
@@ -3225,7 +3265,7 @@
       <c r="N57" s="19"/>
       <c r="O57" s="19"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B58" s="18" t="s">
         <v>61</v>
       </c>
@@ -3263,7 +3303,7 @@
       <c r="N58" s="19"/>
       <c r="O58" s="19"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B59" s="18" t="s">
         <v>64</v>
       </c>
@@ -3305,105 +3345,286 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B60" s="22" t="s">
+    <row r="60" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B60" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="17">
+        <v>33</v>
+      </c>
+      <c r="F60" s="17">
+        <f t="shared" ref="F60" si="7">E60</f>
+        <v>33</v>
+      </c>
+      <c r="G60" s="17">
+        <f t="shared" ref="G60" si="8">F60</f>
+        <v>33</v>
+      </c>
+      <c r="H60" s="17">
+        <f t="shared" ref="H60" si="9">G60</f>
+        <v>33</v>
+      </c>
+      <c r="I60" s="17">
+        <v>33</v>
+      </c>
+      <c r="J60" s="17">
+        <v>26</v>
+      </c>
+      <c r="K60" s="17">
+        <v>19</v>
+      </c>
+      <c r="L60" s="17">
+        <v>12</v>
+      </c>
+      <c r="M60" s="17">
+        <v>4</v>
+      </c>
+      <c r="N60" s="17">
+        <v>1</v>
+      </c>
+      <c r="O60" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B61" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="19"/>
+      <c r="O61" s="19"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19">
+        <v>14</v>
+      </c>
+      <c r="F62" s="19">
+        <v>14</v>
+      </c>
+      <c r="G62" s="19">
+        <v>14</v>
+      </c>
+      <c r="H62" s="19">
+        <v>14</v>
+      </c>
+      <c r="I62" s="19">
+        <v>14</v>
+      </c>
+      <c r="J62" s="19">
+        <v>14</v>
+      </c>
+      <c r="K62" s="19">
+        <v>14</v>
+      </c>
+      <c r="L62" s="19">
+        <v>7</v>
+      </c>
+      <c r="M62" s="19">
+        <v>0</v>
+      </c>
+      <c r="N62" s="19"/>
+      <c r="O62" s="19"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B63" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19">
+        <v>14</v>
+      </c>
+      <c r="F63" s="19">
+        <v>14</v>
+      </c>
+      <c r="G63" s="19">
+        <v>14</v>
+      </c>
+      <c r="H63" s="19">
+        <v>14</v>
+      </c>
+      <c r="I63" s="19">
+        <v>14</v>
+      </c>
+      <c r="J63" s="19">
+        <v>7</v>
+      </c>
+      <c r="K63" s="19">
+        <v>0</v>
+      </c>
+      <c r="L63" s="19">
+        <v>0</v>
+      </c>
+      <c r="M63" s="19">
+        <v>0</v>
+      </c>
+      <c r="N63" s="19"/>
+      <c r="O63" s="19"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B64" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19">
+        <v>5</v>
+      </c>
+      <c r="F64" s="19">
+        <v>5</v>
+      </c>
+      <c r="G64" s="19">
+        <v>5</v>
+      </c>
+      <c r="H64" s="19">
+        <v>5</v>
+      </c>
+      <c r="I64" s="19">
+        <v>5</v>
+      </c>
+      <c r="J64" s="19">
+        <v>5</v>
+      </c>
+      <c r="K64" s="19">
+        <v>5</v>
+      </c>
+      <c r="L64" s="19">
+        <v>5</v>
+      </c>
+      <c r="M64" s="19">
+        <v>4</v>
+      </c>
+      <c r="N64" s="19">
+        <v>1</v>
+      </c>
+      <c r="O64" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B65" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22">
-        <f t="shared" ref="E60:O60" si="7">SUM(E7:E59)</f>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22">
+        <f t="shared" ref="E65:O65" si="10">SUM(E7:E59)</f>
         <v>258</v>
       </c>
-      <c r="F60" s="22">
-        <f t="shared" si="7"/>
+      <c r="F65" s="22">
+        <f t="shared" si="10"/>
         <v>253</v>
       </c>
-      <c r="G60" s="22">
-        <f t="shared" si="7"/>
+      <c r="G65" s="22">
+        <f t="shared" si="10"/>
         <v>202</v>
       </c>
-      <c r="H60" s="22">
-        <f t="shared" si="7"/>
+      <c r="H65" s="22">
+        <f t="shared" si="10"/>
         <v>170</v>
       </c>
-      <c r="I60" s="22">
-        <f t="shared" si="7"/>
+      <c r="I65" s="22">
+        <f t="shared" si="10"/>
         <v>149</v>
       </c>
-      <c r="J60" s="22">
-        <f t="shared" si="7"/>
+      <c r="J65" s="22">
+        <f t="shared" si="10"/>
         <v>109</v>
       </c>
-      <c r="K60" s="22">
-        <f t="shared" si="7"/>
+      <c r="K65" s="22">
+        <f t="shared" si="10"/>
         <v>102</v>
       </c>
-      <c r="L60" s="22">
-        <f t="shared" si="7"/>
-        <v>53</v>
-      </c>
-      <c r="M60" s="22">
-        <f t="shared" si="7"/>
+      <c r="L65" s="22">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="M65" s="22">
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="N60" s="22">
-        <f t="shared" si="7"/>
+      <c r="N65" s="22">
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="O60" s="22">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B61" s="22" t="s">
+      <c r="O65" s="22">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B66" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22">
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22">
         <f>Paramètres!D2*Paramètres!D4*COLUMNS(F6:O6)</f>
         <v>280</v>
       </c>
-      <c r="F61" s="22">
-        <f>E61-(Paramètres!$D2*Paramètres!$D4)</f>
+      <c r="F66" s="22">
+        <f>E66-(Paramètres!$D2*Paramètres!$D4)</f>
         <v>252</v>
       </c>
-      <c r="G61" s="22">
-        <f>F61-(Paramètres!$D2*Paramètres!$D4)</f>
+      <c r="G66" s="22">
+        <f>F66-(Paramètres!$D2*Paramètres!$D4)</f>
         <v>224</v>
       </c>
-      <c r="H61" s="22">
-        <f>G61-(Paramètres!$D2*Paramètres!$D4)</f>
+      <c r="H66" s="22">
+        <f>G66-(Paramètres!$D2*Paramètres!$D4)</f>
         <v>196</v>
       </c>
-      <c r="I61" s="22">
-        <f>H61-(Paramètres!$D2*Paramètres!$D4)</f>
+      <c r="I66" s="22">
+        <f>H66-(Paramètres!$D2*Paramètres!$D4)</f>
         <v>168</v>
       </c>
-      <c r="J61" s="22">
-        <f>I61-(Paramètres!$D2*Paramètres!$D4)</f>
+      <c r="J66" s="22">
+        <f>I66-(Paramètres!$D2*Paramètres!$D4)</f>
         <v>140</v>
       </c>
-      <c r="K61" s="22">
-        <f>J61-(Paramètres!$D2*Paramètres!$D4)</f>
+      <c r="K66" s="22">
+        <f>J66-(Paramètres!$D2*Paramètres!$D4)</f>
         <v>112</v>
       </c>
-      <c r="L61" s="22">
-        <f>K61-(Paramètres!$D2*Paramètres!$D4)</f>
+      <c r="L66" s="22">
+        <f>K66-(Paramètres!$D2*Paramètres!$D4)</f>
         <v>84</v>
       </c>
-      <c r="M61" s="22">
-        <f>L61-(Paramètres!$D2*Paramètres!$D4)</f>
+      <c r="M66" s="22">
+        <f>L66-(Paramètres!$D2*Paramètres!$D4)</f>
         <v>56</v>
       </c>
-      <c r="N61" s="22">
-        <f>M61-(Paramètres!$D2*Paramètres!$D4)</f>
+      <c r="N66" s="22">
+        <f>M66-(Paramètres!$D2*Paramètres!$D4)</f>
         <v>28</v>
       </c>
-      <c r="O61" s="22">
-        <f>N61-(Paramètres!$D2*Paramètres!$D4)</f>
+      <c r="O66" s="22">
+        <f>N66-(Paramètres!$D2*Paramètres!$D4)</f>
         <v>0</v>
       </c>
     </row>
@@ -3426,7 +3647,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D7:D59</xm:sqref>
+          <xm:sqref>D7:D64</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
@@ -3435,7 +3656,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>C7:C55 C57:C59</xm:sqref>
+          <xm:sqref>C7:C55 C57:C60 C62:C64</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3449,7 +3670,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Suivi.xlsx
+++ b/Suivi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy\git\ENI-Encheres\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D603FA3E-AD51-4C15-8FF6-D6A7D90BBEE6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FF881A-24B7-4A03-AE51-FCC16192CC34}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
   <si>
     <t>Paramètres à renseigner avant d'exploiter l'onglet de suivi</t>
   </si>
@@ -1590,7 +1590,7 @@
   <dimension ref="A1:P66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3396,7 +3396,9 @@
         <v>6</v>
       </c>
       <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
+      <c r="E61" s="19">
+        <v>7</v>
+      </c>
       <c r="F61" s="19"/>
       <c r="G61" s="19"/>
       <c r="H61" s="19"/>
@@ -3417,7 +3419,7 @@
       </c>
       <c r="D62" s="19"/>
       <c r="E62" s="19">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F62" s="19">
         <v>14</v>
@@ -3455,7 +3457,7 @@
       </c>
       <c r="D63" s="19"/>
       <c r="E63" s="19">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F63" s="19">
         <v>14</v>
@@ -3485,16 +3487,12 @@
       <c r="O63" s="19"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B64" s="18" t="s">
-        <v>64</v>
-      </c>
+      <c r="B64" s="18"/>
       <c r="C64" s="19" t="s">
         <v>6</v>
       </c>
       <c r="D64" s="19"/>
-      <c r="E64" s="19">
-        <v>5</v>
-      </c>
+      <c r="E64" s="19"/>
       <c r="F64" s="19">
         <v>5</v>
       </c>
